--- a/data/processed/Pesos_Shanusi/__bbdd_revision__TEA_Shanusi.xlsx
+++ b/data/processed/Pesos_Shanusi/__bbdd_revision__TEA_Shanusi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cesar_quezada\ProyectosIA\Proyectos_PALMAS\PROYECTO_01_analitica_descriptiva_TEA\data\processed\Pesos_Shanusi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5F51C-3829-4003-93AF-66BF02A6028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6A0184-4957-4CE9-8A53-F9445369199F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="92">
   <si>
     <t>FECHA</t>
   </si>
@@ -605,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -752,12 +752,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -765,9 +759,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,9 +769,6 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,9 +777,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -806,6 +791,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11505,11 +11508,11 @@
   </sheetPr>
   <dimension ref="A1:CF297"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11588,7 +11591,7 @@
       <c r="Y1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="82"/>
+      <c r="Z1" s="77"/>
       <c r="AZ1" s="2" t="s">
         <v>8</v>
       </c>
@@ -11714,7 +11717,7 @@
       <c r="N2" s="3">
         <v>2019</v>
       </c>
-      <c r="O2" s="59" t="s">
+      <c r="O2" s="80" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="3">
@@ -11754,7 +11757,7 @@
       <c r="AZ2" s="3">
         <v>2019</v>
       </c>
-      <c r="BA2" s="59" t="s">
+      <c r="BA2" s="80" t="s">
         <v>14</v>
       </c>
       <c r="BB2" s="3">
@@ -11888,7 +11891,7 @@
       <c r="N3" s="3">
         <v>2019</v>
       </c>
-      <c r="O3" s="58"/>
+      <c r="O3" s="79"/>
       <c r="P3" s="3">
         <v>3</v>
       </c>
@@ -11942,7 +11945,7 @@
       <c r="AZ3" s="3">
         <v>2019</v>
       </c>
-      <c r="BA3" s="58"/>
+      <c r="BA3" s="79"/>
       <c r="BB3" s="3">
         <v>3</v>
       </c>
@@ -12074,7 +12077,7 @@
       <c r="N4" s="3">
         <v>2019</v>
       </c>
-      <c r="O4" s="58"/>
+      <c r="O4" s="79"/>
       <c r="P4" s="3">
         <v>4</v>
       </c>
@@ -12128,7 +12131,7 @@
       <c r="AZ4" s="3">
         <v>2019</v>
       </c>
-      <c r="BA4" s="58"/>
+      <c r="BA4" s="79"/>
       <c r="BB4" s="3">
         <v>4</v>
       </c>
@@ -12260,7 +12263,7 @@
       <c r="N5" s="3">
         <v>2019</v>
       </c>
-      <c r="O5" s="58"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="3">
         <v>5</v>
       </c>
@@ -12314,7 +12317,7 @@
       <c r="AZ5" s="3">
         <v>2019</v>
       </c>
-      <c r="BA5" s="58"/>
+      <c r="BA5" s="79"/>
       <c r="BB5" s="3">
         <v>5</v>
       </c>
@@ -12446,7 +12449,7 @@
       <c r="N6" s="3">
         <v>2019</v>
       </c>
-      <c r="O6" s="58" t="s">
+      <c r="O6" s="79" t="s">
         <v>15</v>
       </c>
       <c r="P6" s="3">
@@ -12502,7 +12505,7 @@
       <c r="AZ6" s="3">
         <v>2019</v>
       </c>
-      <c r="BA6" s="58" t="s">
+      <c r="BA6" s="79" t="s">
         <v>15</v>
       </c>
       <c r="BB6" s="3">
@@ -12636,7 +12639,7 @@
       <c r="N7" s="3">
         <v>2019</v>
       </c>
-      <c r="O7" s="58"/>
+      <c r="O7" s="79"/>
       <c r="P7" s="3">
         <v>7</v>
       </c>
@@ -12690,7 +12693,7 @@
       <c r="AZ7" s="3">
         <v>2019</v>
       </c>
-      <c r="BA7" s="58"/>
+      <c r="BA7" s="79"/>
       <c r="BB7" s="3">
         <v>7</v>
       </c>
@@ -12822,7 +12825,7 @@
       <c r="N8" s="3">
         <v>2019</v>
       </c>
-      <c r="O8" s="58"/>
+      <c r="O8" s="79"/>
       <c r="P8" s="3">
         <v>8</v>
       </c>
@@ -12876,7 +12879,7 @@
       <c r="AZ8" s="3">
         <v>2019</v>
       </c>
-      <c r="BA8" s="58"/>
+      <c r="BA8" s="79"/>
       <c r="BB8" s="3">
         <v>8</v>
       </c>
@@ -13008,7 +13011,7 @@
       <c r="N9" s="3">
         <v>2019</v>
       </c>
-      <c r="O9" s="58"/>
+      <c r="O9" s="79"/>
       <c r="P9" s="3">
         <v>9</v>
       </c>
@@ -13062,7 +13065,7 @@
       <c r="AZ9" s="3">
         <v>2019</v>
       </c>
-      <c r="BA9" s="58"/>
+      <c r="BA9" s="79"/>
       <c r="BB9" s="3">
         <v>9</v>
       </c>
@@ -13194,7 +13197,7 @@
       <c r="N10" s="3">
         <v>2019</v>
       </c>
-      <c r="O10" s="58" t="s">
+      <c r="O10" s="79" t="s">
         <v>16</v>
       </c>
       <c r="P10" s="3">
@@ -13250,7 +13253,7 @@
       <c r="AZ10" s="3">
         <v>2019</v>
       </c>
-      <c r="BA10" s="58" t="s">
+      <c r="BA10" s="79" t="s">
         <v>16</v>
       </c>
       <c r="BB10" s="3">
@@ -13384,7 +13387,7 @@
       <c r="N11" s="3">
         <v>2019</v>
       </c>
-      <c r="O11" s="58"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="3">
         <v>11</v>
       </c>
@@ -13438,7 +13441,7 @@
       <c r="AZ11" s="3">
         <v>2019</v>
       </c>
-      <c r="BA11" s="58"/>
+      <c r="BA11" s="79"/>
       <c r="BB11" s="3">
         <v>11</v>
       </c>
@@ -13570,7 +13573,7 @@
       <c r="N12" s="3">
         <v>2019</v>
       </c>
-      <c r="O12" s="58"/>
+      <c r="O12" s="79"/>
       <c r="P12" s="3">
         <v>12</v>
       </c>
@@ -13624,7 +13627,7 @@
       <c r="AZ12" s="3">
         <v>2019</v>
       </c>
-      <c r="BA12" s="58"/>
+      <c r="BA12" s="79"/>
       <c r="BB12" s="3">
         <v>12</v>
       </c>
@@ -13756,7 +13759,7 @@
       <c r="N13" s="3">
         <v>2019</v>
       </c>
-      <c r="O13" s="58"/>
+      <c r="O13" s="79"/>
       <c r="P13" s="3">
         <v>13</v>
       </c>
@@ -13810,7 +13813,7 @@
       <c r="AZ13" s="3">
         <v>2019</v>
       </c>
-      <c r="BA13" s="58"/>
+      <c r="BA13" s="79"/>
       <c r="BB13" s="3">
         <v>13</v>
       </c>
@@ -13942,7 +13945,7 @@
       <c r="N14" s="3">
         <v>2019</v>
       </c>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="79" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="3">
@@ -13998,7 +14001,7 @@
       <c r="AZ14" s="3">
         <v>2019</v>
       </c>
-      <c r="BA14" s="58" t="s">
+      <c r="BA14" s="79" t="s">
         <v>17</v>
       </c>
       <c r="BB14" s="3">
@@ -14132,7 +14135,7 @@
       <c r="N15" s="3">
         <v>2019</v>
       </c>
-      <c r="O15" s="58"/>
+      <c r="O15" s="79"/>
       <c r="P15" s="3">
         <v>15</v>
       </c>
@@ -14186,7 +14189,7 @@
       <c r="AZ15" s="3">
         <v>2019</v>
       </c>
-      <c r="BA15" s="58"/>
+      <c r="BA15" s="79"/>
       <c r="BB15" s="3">
         <v>15</v>
       </c>
@@ -14318,7 +14321,7 @@
       <c r="N16" s="3">
         <v>2019</v>
       </c>
-      <c r="O16" s="58"/>
+      <c r="O16" s="79"/>
       <c r="P16" s="3">
         <v>16</v>
       </c>
@@ -14372,7 +14375,7 @@
       <c r="AZ16" s="3">
         <v>2019</v>
       </c>
-      <c r="BA16" s="58"/>
+      <c r="BA16" s="79"/>
       <c r="BB16" s="3">
         <v>16</v>
       </c>
@@ -14504,7 +14507,7 @@
       <c r="N17" s="3">
         <v>2019</v>
       </c>
-      <c r="O17" s="58"/>
+      <c r="O17" s="79"/>
       <c r="P17" s="3">
         <v>17</v>
       </c>
@@ -14558,7 +14561,7 @@
       <c r="AZ17" s="3">
         <v>2019</v>
       </c>
-      <c r="BA17" s="58"/>
+      <c r="BA17" s="79"/>
       <c r="BB17" s="3">
         <v>17</v>
       </c>
@@ -14690,7 +14693,7 @@
       <c r="N18" s="3">
         <v>2019</v>
       </c>
-      <c r="O18" s="58"/>
+      <c r="O18" s="79"/>
       <c r="P18" s="3">
         <v>18</v>
       </c>
@@ -14744,7 +14747,7 @@
       <c r="AZ18" s="3">
         <v>2019</v>
       </c>
-      <c r="BA18" s="58"/>
+      <c r="BA18" s="79"/>
       <c r="BB18" s="3">
         <v>18</v>
       </c>
@@ -14876,7 +14879,7 @@
       <c r="N19" s="3">
         <v>2019</v>
       </c>
-      <c r="O19" s="58" t="s">
+      <c r="O19" s="79" t="s">
         <v>18</v>
       </c>
       <c r="P19" s="3">
@@ -14932,7 +14935,7 @@
       <c r="AZ19" s="3">
         <v>2019</v>
       </c>
-      <c r="BA19" s="58" t="s">
+      <c r="BA19" s="79" t="s">
         <v>18</v>
       </c>
       <c r="BB19" s="3">
@@ -15066,7 +15069,7 @@
       <c r="N20" s="3">
         <v>2019</v>
       </c>
-      <c r="O20" s="58"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="3">
         <v>20</v>
       </c>
@@ -15120,7 +15123,7 @@
       <c r="AZ20" s="3">
         <v>2019</v>
       </c>
-      <c r="BA20" s="58"/>
+      <c r="BA20" s="79"/>
       <c r="BB20" s="3">
         <v>20</v>
       </c>
@@ -15252,7 +15255,7 @@
       <c r="N21" s="3">
         <v>2019</v>
       </c>
-      <c r="O21" s="58"/>
+      <c r="O21" s="79"/>
       <c r="P21" s="3">
         <v>21</v>
       </c>
@@ -15306,7 +15309,7 @@
       <c r="AZ21" s="3">
         <v>2019</v>
       </c>
-      <c r="BA21" s="58"/>
+      <c r="BA21" s="79"/>
       <c r="BB21" s="3">
         <v>21</v>
       </c>
@@ -15438,7 +15441,7 @@
       <c r="N22" s="3">
         <v>2019</v>
       </c>
-      <c r="O22" s="58"/>
+      <c r="O22" s="79"/>
       <c r="P22" s="3">
         <v>22</v>
       </c>
@@ -15492,7 +15495,7 @@
       <c r="AZ22" s="3">
         <v>2019</v>
       </c>
-      <c r="BA22" s="58"/>
+      <c r="BA22" s="79"/>
       <c r="BB22" s="3">
         <v>22</v>
       </c>
@@ -15624,7 +15627,7 @@
       <c r="N23" s="3">
         <v>2019</v>
       </c>
-      <c r="O23" s="58" t="s">
+      <c r="O23" s="79" t="s">
         <v>19</v>
       </c>
       <c r="P23" s="3">
@@ -15680,7 +15683,7 @@
       <c r="AZ23" s="3">
         <v>2019</v>
       </c>
-      <c r="BA23" s="58" t="s">
+      <c r="BA23" s="79" t="s">
         <v>19</v>
       </c>
       <c r="BB23" s="3">
@@ -15814,7 +15817,7 @@
       <c r="N24" s="3">
         <v>2019</v>
       </c>
-      <c r="O24" s="58"/>
+      <c r="O24" s="79"/>
       <c r="P24" s="3">
         <v>24</v>
       </c>
@@ -15865,7 +15868,7 @@
       <c r="AZ24" s="3">
         <v>2019</v>
       </c>
-      <c r="BA24" s="58"/>
+      <c r="BA24" s="79"/>
       <c r="BB24" s="3">
         <v>24</v>
       </c>
@@ -15997,7 +16000,7 @@
       <c r="N25" s="3">
         <v>2019</v>
       </c>
-      <c r="O25" s="58"/>
+      <c r="O25" s="79"/>
       <c r="P25" s="3">
         <v>25</v>
       </c>
@@ -16051,7 +16054,7 @@
       <c r="AZ25" s="3">
         <v>2019</v>
       </c>
-      <c r="BA25" s="58"/>
+      <c r="BA25" s="79"/>
       <c r="BB25" s="3">
         <v>25</v>
       </c>
@@ -16183,7 +16186,7 @@
       <c r="N26" s="3">
         <v>2019</v>
       </c>
-      <c r="O26" s="58"/>
+      <c r="O26" s="79"/>
       <c r="P26" s="3">
         <v>26</v>
       </c>
@@ -16237,7 +16240,7 @@
       <c r="AZ26" s="3">
         <v>2019</v>
       </c>
-      <c r="BA26" s="58"/>
+      <c r="BA26" s="79"/>
       <c r="BB26" s="3">
         <v>26</v>
       </c>
@@ -16369,7 +16372,7 @@
       <c r="N27" s="3">
         <v>2019</v>
       </c>
-      <c r="O27" s="58" t="s">
+      <c r="O27" s="79" t="s">
         <v>20</v>
       </c>
       <c r="P27" s="3">
@@ -16425,7 +16428,7 @@
       <c r="AZ27" s="3">
         <v>2019</v>
       </c>
-      <c r="BA27" s="58" t="s">
+      <c r="BA27" s="79" t="s">
         <v>20</v>
       </c>
       <c r="BB27" s="3">
@@ -16559,7 +16562,7 @@
       <c r="N28" s="3">
         <v>2019</v>
       </c>
-      <c r="O28" s="58"/>
+      <c r="O28" s="79"/>
       <c r="P28" s="3">
         <v>28</v>
       </c>
@@ -16613,7 +16616,7 @@
       <c r="AZ28" s="3">
         <v>2019</v>
       </c>
-      <c r="BA28" s="58"/>
+      <c r="BA28" s="79"/>
       <c r="BB28" s="3">
         <v>28</v>
       </c>
@@ -16745,7 +16748,7 @@
       <c r="N29" s="3">
         <v>2019</v>
       </c>
-      <c r="O29" s="58"/>
+      <c r="O29" s="79"/>
       <c r="P29" s="3">
         <v>29</v>
       </c>
@@ -16799,7 +16802,7 @@
       <c r="AZ29" s="3">
         <v>2019</v>
       </c>
-      <c r="BA29" s="58"/>
+      <c r="BA29" s="79"/>
       <c r="BB29" s="3">
         <v>29</v>
       </c>
@@ -16931,7 +16934,7 @@
       <c r="N30" s="3">
         <v>2019</v>
       </c>
-      <c r="O30" s="58"/>
+      <c r="O30" s="79"/>
       <c r="P30" s="3">
         <v>30</v>
       </c>
@@ -16985,7 +16988,7 @@
       <c r="AZ30" s="3">
         <v>2019</v>
       </c>
-      <c r="BA30" s="58"/>
+      <c r="BA30" s="79"/>
       <c r="BB30" s="3">
         <v>30</v>
       </c>
@@ -17117,7 +17120,7 @@
       <c r="N31" s="3">
         <v>2019</v>
       </c>
-      <c r="O31" s="58"/>
+      <c r="O31" s="79"/>
       <c r="P31" s="3">
         <v>31</v>
       </c>
@@ -17171,7 +17174,7 @@
       <c r="AZ31" s="3">
         <v>2019</v>
       </c>
-      <c r="BA31" s="58"/>
+      <c r="BA31" s="79"/>
       <c r="BB31" s="3">
         <v>31</v>
       </c>
@@ -17303,63 +17306,63 @@
       <c r="N32" s="3">
         <v>2019</v>
       </c>
-      <c r="O32" s="67" t="s">
+      <c r="O32" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="P32" s="68">
+      <c r="P32" s="65">
         <v>32</v>
       </c>
-      <c r="Q32" s="69">
+      <c r="Q32" s="66">
         <v>0.25491591203104791</v>
       </c>
-      <c r="R32" s="69">
+      <c r="R32" s="66">
         <v>0.22800157064810511</v>
       </c>
-      <c r="S32" s="69">
+      <c r="S32" s="66">
         <v>0.25029546252185109</v>
       </c>
-      <c r="T32" s="69">
+      <c r="T32" s="66">
         <v>0.23680910447014189</v>
       </c>
-      <c r="U32" s="69">
+      <c r="U32" s="66">
         <v>0.23834845145028569</v>
       </c>
-      <c r="V32" s="69">
+      <c r="V32" s="66">
         <v>0.2307333913270127</v>
       </c>
-      <c r="W32" s="68">
+      <c r="W32" s="65">
         <f t="shared" si="1"/>
         <v>0.24167410022428631</v>
       </c>
-      <c r="X32" s="68">
+      <c r="X32" s="65">
         <f t="shared" si="2"/>
         <v>0.22800157064810511</v>
       </c>
-      <c r="Y32" s="68">
+      <c r="Y32" s="65">
         <f t="shared" si="9"/>
         <v>0.25491591203104791</v>
       </c>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="70">
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="67">
         <f t="shared" si="21"/>
         <v>6.999326236663661E-3</v>
       </c>
-      <c r="AB32" s="70">
+      <c r="AB32" s="67">
         <f t="shared" si="11"/>
         <v>1.9543491434611537E-2</v>
       </c>
-      <c r="AC32" s="70">
+      <c r="AC32" s="67">
         <f t="shared" si="12"/>
         <v>4.9899316123685589E-2</v>
       </c>
-      <c r="AD32" s="71">
+      <c r="AD32" s="68">
         <f t="shared" si="13"/>
         <v>1.3778320356573559E-2</v>
       </c>
       <c r="AZ32" s="3">
         <v>2019</v>
       </c>
-      <c r="BA32" s="58" t="s">
+      <c r="BA32" s="79" t="s">
         <v>21</v>
       </c>
       <c r="BB32" s="3">
@@ -17493,61 +17496,61 @@
       <c r="N33" s="3">
         <v>2019</v>
       </c>
-      <c r="O33" s="72"/>
-      <c r="P33" s="73">
+      <c r="O33" s="82"/>
+      <c r="P33" s="69">
         <v>33</v>
       </c>
-      <c r="Q33" s="74">
+      <c r="Q33" s="70">
         <v>0.24025279295166091</v>
       </c>
-      <c r="R33" s="74">
+      <c r="R33" s="70">
         <v>0.22974309877612489</v>
       </c>
-      <c r="S33" s="74">
+      <c r="S33" s="70">
         <v>0.24115684163471399</v>
       </c>
-      <c r="T33" s="74">
+      <c r="T33" s="70">
         <v>0.24430074812308389</v>
       </c>
-      <c r="U33" s="74">
+      <c r="U33" s="70">
         <v>0.23617822840774619</v>
       </c>
-      <c r="V33" s="74">
+      <c r="V33" s="70">
         <v>0.23201016440114511</v>
       </c>
-      <c r="W33" s="73">
+      <c r="W33" s="69">
         <f t="shared" si="1"/>
         <v>0.23832634197866595</v>
       </c>
-      <c r="X33" s="73">
+      <c r="X33" s="69">
         <f t="shared" si="2"/>
         <v>0.22974309877612489</v>
       </c>
-      <c r="Y33" s="73">
+      <c r="Y33" s="69">
         <f t="shared" si="9"/>
         <v>0.24430074812308389</v>
       </c>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="75">
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="71">
         <f t="shared" si="21"/>
         <v>5.5335427039377993E-3</v>
       </c>
-      <c r="AB33" s="75">
+      <c r="AB33" s="71">
         <f t="shared" si="11"/>
         <v>-1.3852366647950531E-2</v>
       </c>
-      <c r="AC33" s="75">
+      <c r="AC33" s="71">
         <f t="shared" si="12"/>
         <v>7.6382286449581116E-3</v>
       </c>
-      <c r="AD33" s="76">
+      <c r="AD33" s="72">
         <f t="shared" si="13"/>
         <v>-4.164182542936401E-2</v>
       </c>
       <c r="AZ33" s="3">
         <v>2019</v>
       </c>
-      <c r="BA33" s="58"/>
+      <c r="BA33" s="79"/>
       <c r="BB33" s="3">
         <v>33</v>
       </c>
@@ -17679,61 +17682,61 @@
       <c r="N34" s="3">
         <v>2019</v>
       </c>
-      <c r="O34" s="72"/>
-      <c r="P34" s="73">
+      <c r="O34" s="82"/>
+      <c r="P34" s="69">
         <v>34</v>
       </c>
-      <c r="Q34" s="74">
+      <c r="Q34" s="70">
         <v>0.25484622172833049</v>
       </c>
-      <c r="R34" s="74">
+      <c r="R34" s="70">
         <v>0.23089937558384119</v>
       </c>
-      <c r="S34" s="74">
+      <c r="S34" s="70">
         <v>0.2406051631128007</v>
       </c>
-      <c r="T34" s="74">
+      <c r="T34" s="70">
         <v>0.24245179166346581</v>
       </c>
-      <c r="U34" s="74">
+      <c r="U34" s="70">
         <v>0.2334855140110581</v>
       </c>
-      <c r="V34" s="74">
+      <c r="V34" s="70">
         <v>0.23290954278637085</v>
       </c>
-      <c r="W34" s="73">
+      <c r="W34" s="69">
         <f t="shared" si="1"/>
         <v>0.24045761321989928</v>
       </c>
-      <c r="X34" s="73">
+      <c r="X34" s="69">
         <f t="shared" si="2"/>
         <v>0.23089937558384119</v>
       </c>
-      <c r="Y34" s="73">
+      <c r="Y34" s="69">
         <f t="shared" si="9"/>
         <v>0.25484622172833049</v>
       </c>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="75">
+      <c r="Z34" s="69"/>
+      <c r="AA34" s="71">
         <f t="shared" si="21"/>
         <v>3.8764611349988431E-3</v>
       </c>
-      <c r="AB34" s="75">
+      <c r="AB34" s="71">
         <f t="shared" si="11"/>
         <v>8.9426591435037839E-3</v>
       </c>
-      <c r="AC34" s="75">
+      <c r="AC34" s="71">
         <f t="shared" si="12"/>
         <v>5.0329120390382176E-3</v>
       </c>
-      <c r="AD34" s="76">
+      <c r="AD34" s="72">
         <f t="shared" si="13"/>
         <v>4.316594888171843E-2</v>
       </c>
       <c r="AZ34" s="3">
         <v>2019</v>
       </c>
-      <c r="BA34" s="58"/>
+      <c r="BA34" s="79"/>
       <c r="BB34" s="3">
         <v>34</v>
       </c>
@@ -17865,61 +17868,61 @@
       <c r="N35" s="3">
         <v>2019</v>
       </c>
-      <c r="O35" s="72"/>
-      <c r="P35" s="73">
+      <c r="O35" s="82"/>
+      <c r="P35" s="69">
         <v>35</v>
       </c>
-      <c r="Q35" s="74">
+      <c r="Q35" s="70">
         <v>0.24878838906262529</v>
       </c>
-      <c r="R35" s="74">
+      <c r="R35" s="70">
         <v>0.22242113518932249</v>
       </c>
-      <c r="S35" s="74">
+      <c r="S35" s="70">
         <v>0.24796794400187941</v>
       </c>
-      <c r="T35" s="74">
+      <c r="T35" s="70">
         <v>0.23391488051076911</v>
       </c>
-      <c r="U35" s="74">
+      <c r="U35" s="70">
         <v>0.23036551997069851</v>
       </c>
-      <c r="V35" s="74">
+      <c r="V35" s="70">
         <v>0.23115987877840105</v>
       </c>
-      <c r="W35" s="73">
+      <c r="W35" s="69">
         <f t="shared" si="1"/>
         <v>0.23669157374705896</v>
       </c>
-      <c r="X35" s="73">
+      <c r="X35" s="69">
         <f t="shared" si="2"/>
         <v>0.22242113518932249</v>
       </c>
-      <c r="Y35" s="73">
+      <c r="Y35" s="69">
         <f t="shared" si="9"/>
         <v>0.24878838906262529</v>
       </c>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="75">
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="71">
         <f t="shared" si="21"/>
         <v>-7.5122040386925715E-3</v>
       </c>
-      <c r="AB35" s="75">
+      <c r="AB35" s="71">
         <f t="shared" si="11"/>
         <v>-1.5661968121576053E-2</v>
       </c>
-      <c r="AC35" s="75">
+      <c r="AC35" s="71">
         <f t="shared" si="12"/>
         <v>-3.6718334006235476E-2</v>
       </c>
-      <c r="AD35" s="76">
+      <c r="AD35" s="72">
         <f t="shared" si="13"/>
         <v>-2.3770541405800927E-2</v>
       </c>
       <c r="AZ35" s="3">
         <v>2019</v>
       </c>
-      <c r="BA35" s="58"/>
+      <c r="BA35" s="79"/>
       <c r="BB35" s="3">
         <v>35</v>
       </c>
@@ -18051,63 +18054,63 @@
       <c r="N36" s="3">
         <v>2019</v>
       </c>
-      <c r="O36" s="72" t="s">
+      <c r="O36" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="P36" s="73">
+      <c r="P36" s="69">
         <v>36</v>
       </c>
-      <c r="Q36" s="74">
+      <c r="Q36" s="70">
         <v>0.24841937864440961</v>
       </c>
-      <c r="R36" s="74">
+      <c r="R36" s="70">
         <v>0.2229977563676378</v>
       </c>
-      <c r="S36" s="74">
+      <c r="S36" s="70">
         <v>0.25414655887230519</v>
       </c>
-      <c r="T36" s="74">
+      <c r="T36" s="70">
         <v>0.23339472440033071</v>
       </c>
-      <c r="U36" s="74">
+      <c r="U36" s="70">
         <v>0.24455965515966349</v>
       </c>
-      <c r="V36" s="74">
+      <c r="V36" s="70">
         <v>0.22739305918874553</v>
       </c>
-      <c r="W36" s="73">
+      <c r="W36" s="69">
         <f t="shared" si="1"/>
         <v>0.24070361468886939</v>
       </c>
-      <c r="X36" s="73">
+      <c r="X36" s="69">
         <f t="shared" si="2"/>
         <v>0.2229977563676378</v>
       </c>
-      <c r="Y36" s="73">
+      <c r="Y36" s="69">
         <f t="shared" si="9"/>
         <v>0.25414655887230519</v>
       </c>
-      <c r="Z36" s="73"/>
-      <c r="AA36" s="75">
+      <c r="Z36" s="69"/>
+      <c r="AA36" s="71">
         <f t="shared" si="21"/>
         <v>-1.6295300073532859E-2</v>
       </c>
-      <c r="AB36" s="75">
+      <c r="AB36" s="71">
         <f t="shared" si="11"/>
         <v>1.6950501778732141E-2</v>
       </c>
-      <c r="AC36" s="75">
+      <c r="AC36" s="71">
         <f t="shared" si="12"/>
         <v>2.592474756611951E-3</v>
       </c>
-      <c r="AD36" s="76">
+      <c r="AD36" s="72">
         <f t="shared" si="13"/>
         <v>2.1537057375821345E-2</v>
       </c>
       <c r="AZ36" s="3">
         <v>2019</v>
       </c>
-      <c r="BA36" s="58" t="s">
+      <c r="BA36" s="79" t="s">
         <v>22</v>
       </c>
       <c r="BB36" s="3">
@@ -18241,56 +18244,56 @@
       <c r="N37" s="3">
         <v>2019</v>
       </c>
-      <c r="O37" s="72"/>
-      <c r="P37" s="73">
+      <c r="O37" s="82"/>
+      <c r="P37" s="69">
         <v>37</v>
       </c>
-      <c r="Q37" s="74">
+      <c r="Q37" s="70">
         <v>0.24107535006729791</v>
       </c>
-      <c r="R37" s="74">
+      <c r="R37" s="70">
         <v>0.23164550312885401</v>
       </c>
-      <c r="S37" s="74">
+      <c r="S37" s="70">
         <v>0.24904581877176349</v>
       </c>
-      <c r="T37" s="74">
+      <c r="T37" s="70">
         <v>0.23038313162891061</v>
       </c>
-      <c r="U37" s="74">
+      <c r="U37" s="70">
         <v>0.24517471400347041</v>
       </c>
-      <c r="V37" s="74"/>
-      <c r="W37" s="73">
+      <c r="V37" s="70"/>
+      <c r="W37" s="69">
         <f t="shared" si="1"/>
         <v>0.23946490352005928</v>
       </c>
-      <c r="X37" s="73">
+      <c r="X37" s="69">
         <f t="shared" si="2"/>
         <v>0.23038313162891061</v>
       </c>
-      <c r="Y37" s="73">
+      <c r="Y37" s="69">
         <f t="shared" si="9"/>
         <v>0.24904581877176349</v>
       </c>
-      <c r="Z37" s="73"/>
-      <c r="AA37" s="75"/>
-      <c r="AB37" s="75">
+      <c r="Z37" s="69"/>
+      <c r="AA37" s="71"/>
+      <c r="AB37" s="71">
         <f t="shared" si="11"/>
         <v>-5.1462092516194602E-3</v>
       </c>
-      <c r="AC37" s="75">
+      <c r="AC37" s="71">
         <f t="shared" si="12"/>
         <v>3.3118607924902843E-2</v>
       </c>
-      <c r="AD37" s="76">
+      <c r="AD37" s="72">
         <f t="shared" si="13"/>
         <v>-2.0070073437840841E-2</v>
       </c>
       <c r="AZ37" s="3">
         <v>2019</v>
       </c>
-      <c r="BA37" s="58"/>
+      <c r="BA37" s="79"/>
       <c r="BB37" s="3">
         <v>37</v>
       </c>
@@ -18419,56 +18422,56 @@
       <c r="N38" s="3">
         <v>2019</v>
       </c>
-      <c r="O38" s="72"/>
-      <c r="P38" s="73">
+      <c r="O38" s="82"/>
+      <c r="P38" s="69">
         <v>38</v>
       </c>
-      <c r="Q38" s="74">
+      <c r="Q38" s="70">
         <v>0.24104064404963579</v>
       </c>
-      <c r="R38" s="74">
+      <c r="R38" s="70">
         <v>0.24878553316428659</v>
       </c>
-      <c r="S38" s="74">
+      <c r="S38" s="70">
         <v>0.24118027618505769</v>
       </c>
-      <c r="T38" s="74">
+      <c r="T38" s="70">
         <v>0.23586008158669669</v>
       </c>
-      <c r="U38" s="74">
+      <c r="U38" s="70">
         <v>0.23078827329059051</v>
       </c>
-      <c r="V38" s="74"/>
-      <c r="W38" s="73">
+      <c r="V38" s="70"/>
+      <c r="W38" s="69">
         <f t="shared" si="1"/>
         <v>0.23953096165525345</v>
       </c>
-      <c r="X38" s="73">
+      <c r="X38" s="69">
         <f t="shared" si="2"/>
         <v>0.23078827329059051</v>
       </c>
-      <c r="Y38" s="73">
+      <c r="Y38" s="69">
         <f t="shared" si="9"/>
         <v>0.24878553316428659</v>
       </c>
-      <c r="Z38" s="73"/>
-      <c r="AA38" s="75"/>
-      <c r="AB38" s="75">
+      <c r="Z38" s="69"/>
+      <c r="AA38" s="71"/>
+      <c r="AB38" s="71">
         <f t="shared" si="11"/>
         <v>2.7585727270729166E-4</v>
       </c>
-      <c r="AC38" s="75">
+      <c r="AC38" s="71">
         <f t="shared" si="12"/>
         <v>1.758556100941E-3</v>
       </c>
-      <c r="AD38" s="76">
+      <c r="AD38" s="72">
         <f t="shared" si="13"/>
         <v>-1.0451314089936492E-3</v>
       </c>
       <c r="AZ38" s="3">
         <v>2019</v>
       </c>
-      <c r="BA38" s="58"/>
+      <c r="BA38" s="79"/>
       <c r="BB38" s="3">
         <v>38</v>
       </c>
@@ -18590,56 +18593,56 @@
       <c r="N39" s="3">
         <v>2019</v>
       </c>
-      <c r="O39" s="72"/>
-      <c r="P39" s="73">
+      <c r="O39" s="82"/>
+      <c r="P39" s="69">
         <v>39</v>
       </c>
-      <c r="Q39" s="74">
+      <c r="Q39" s="70">
         <v>0.24775210642764581</v>
       </c>
-      <c r="R39" s="74">
+      <c r="R39" s="70">
         <v>0.24582330586784529</v>
       </c>
-      <c r="S39" s="74">
+      <c r="S39" s="70">
         <v>0.2320141770907353</v>
       </c>
-      <c r="T39" s="74">
+      <c r="T39" s="70">
         <v>0.23607131814438931</v>
       </c>
-      <c r="U39" s="74">
+      <c r="U39" s="70">
         <v>0.23336415503680619</v>
       </c>
-      <c r="V39" s="74"/>
-      <c r="W39" s="73">
+      <c r="V39" s="70"/>
+      <c r="W39" s="69">
         <f t="shared" si="1"/>
         <v>0.23900501251348433</v>
       </c>
-      <c r="X39" s="73">
+      <c r="X39" s="69">
         <f t="shared" si="2"/>
         <v>0.2320141770907353</v>
       </c>
-      <c r="Y39" s="73">
+      <c r="Y39" s="69">
         <f t="shared" si="9"/>
         <v>0.24775210642764581</v>
       </c>
-      <c r="Z39" s="73"/>
-      <c r="AA39" s="75"/>
-      <c r="AB39" s="75">
+      <c r="Z39" s="69"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="71">
         <f t="shared" si="11"/>
         <v>-2.1957459617520936E-3</v>
       </c>
-      <c r="AC39" s="75">
+      <c r="AC39" s="71">
         <f t="shared" si="12"/>
         <v>5.3118114827317431E-3</v>
       </c>
-      <c r="AD39" s="76">
+      <c r="AD39" s="72">
         <f t="shared" si="13"/>
         <v>-4.1538859735801292E-3</v>
       </c>
       <c r="AZ39" s="3">
         <v>2019</v>
       </c>
-      <c r="BA39" s="58"/>
+      <c r="BA39" s="79"/>
       <c r="BB39" s="3">
         <v>39</v>
       </c>
@@ -18761,56 +18764,56 @@
       <c r="N40" s="3">
         <v>2019</v>
       </c>
-      <c r="O40" s="77"/>
-      <c r="P40" s="78">
+      <c r="O40" s="83"/>
+      <c r="P40" s="73">
         <v>40</v>
       </c>
-      <c r="Q40" s="79">
+      <c r="Q40" s="74">
         <v>0.2479514858050488</v>
       </c>
-      <c r="R40" s="79">
+      <c r="R40" s="74">
         <v>0.23789122565358681</v>
       </c>
-      <c r="S40" s="79">
+      <c r="S40" s="74">
         <v>0.23026238594318901</v>
       </c>
-      <c r="T40" s="79">
+      <c r="T40" s="74">
         <v>0.22803114752852779</v>
       </c>
-      <c r="U40" s="79">
+      <c r="U40" s="74">
         <v>0.2278748064199495</v>
       </c>
-      <c r="V40" s="79"/>
-      <c r="W40" s="78">
+      <c r="V40" s="74"/>
+      <c r="W40" s="73">
         <f t="shared" si="1"/>
         <v>0.23440221027006039</v>
       </c>
-      <c r="X40" s="78">
+      <c r="X40" s="73">
         <f t="shared" si="2"/>
         <v>0.2278748064199495</v>
       </c>
-      <c r="Y40" s="78">
+      <c r="Y40" s="73">
         <f t="shared" si="9"/>
         <v>0.2479514858050488</v>
       </c>
-      <c r="Z40" s="78"/>
-      <c r="AA40" s="80"/>
-      <c r="AB40" s="80">
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="75"/>
+      <c r="AB40" s="75">
         <f t="shared" si="11"/>
         <v>-1.9258182893399534E-2</v>
       </c>
-      <c r="AC40" s="80">
+      <c r="AC40" s="75">
         <f t="shared" si="12"/>
         <v>-1.7841024728273314E-2</v>
       </c>
-      <c r="AD40" s="81">
+      <c r="AD40" s="76">
         <f t="shared" si="13"/>
         <v>8.0475351058706401E-4</v>
       </c>
       <c r="AZ40" s="3">
         <v>2019</v>
       </c>
-      <c r="BA40" s="58"/>
+      <c r="BA40" s="79"/>
       <c r="BB40" s="3">
         <v>40</v>
       </c>
@@ -18932,7 +18935,7 @@
       <c r="N41" s="3">
         <v>2019</v>
       </c>
-      <c r="O41" s="58" t="s">
+      <c r="O41" s="79" t="s">
         <v>23</v>
       </c>
       <c r="P41" s="3">
@@ -18982,7 +18985,7 @@
       <c r="AZ41" s="3">
         <v>2019</v>
       </c>
-      <c r="BA41" s="58" t="s">
+      <c r="BA41" s="79" t="s">
         <v>23</v>
       </c>
       <c r="BB41" s="3">
@@ -19106,7 +19109,7 @@
       <c r="N42" s="3">
         <v>2019</v>
       </c>
-      <c r="O42" s="58"/>
+      <c r="O42" s="79"/>
       <c r="P42" s="3">
         <v>42</v>
       </c>
@@ -19154,7 +19157,7 @@
       <c r="AZ42" s="3">
         <v>2019</v>
       </c>
-      <c r="BA42" s="58"/>
+      <c r="BA42" s="79"/>
       <c r="BB42" s="3">
         <v>42</v>
       </c>
@@ -19276,7 +19279,7 @@
       <c r="N43" s="3">
         <v>2019</v>
       </c>
-      <c r="O43" s="58"/>
+      <c r="O43" s="79"/>
       <c r="P43" s="3">
         <v>43</v>
       </c>
@@ -19324,7 +19327,7 @@
       <c r="AZ43" s="3">
         <v>2019</v>
       </c>
-      <c r="BA43" s="58"/>
+      <c r="BA43" s="79"/>
       <c r="BB43" s="3">
         <v>43</v>
       </c>
@@ -19446,7 +19449,7 @@
       <c r="N44" s="3">
         <v>2019</v>
       </c>
-      <c r="O44" s="58"/>
+      <c r="O44" s="79"/>
       <c r="P44" s="3">
         <v>44</v>
       </c>
@@ -19494,7 +19497,7 @@
       <c r="AZ44" s="3">
         <v>2019</v>
       </c>
-      <c r="BA44" s="58"/>
+      <c r="BA44" s="79"/>
       <c r="BB44" s="3">
         <v>44</v>
       </c>
@@ -19616,7 +19619,7 @@
       <c r="N45" s="3">
         <v>2019</v>
       </c>
-      <c r="O45" s="58" t="s">
+      <c r="O45" s="79" t="s">
         <v>24</v>
       </c>
       <c r="P45" s="3">
@@ -19666,7 +19669,7 @@
       <c r="AZ45" s="3">
         <v>2019</v>
       </c>
-      <c r="BA45" s="58" t="s">
+      <c r="BA45" s="79" t="s">
         <v>24</v>
       </c>
       <c r="BB45" s="3">
@@ -19790,7 +19793,7 @@
       <c r="N46" s="3">
         <v>2019</v>
       </c>
-      <c r="O46" s="58"/>
+      <c r="O46" s="79"/>
       <c r="P46" s="3">
         <v>46</v>
       </c>
@@ -19838,7 +19841,7 @@
       <c r="AZ46" s="3">
         <v>2019</v>
       </c>
-      <c r="BA46" s="58"/>
+      <c r="BA46" s="79"/>
       <c r="BB46" s="3">
         <v>46</v>
       </c>
@@ -19960,7 +19963,7 @@
       <c r="N47" s="3">
         <v>2019</v>
       </c>
-      <c r="O47" s="58"/>
+      <c r="O47" s="79"/>
       <c r="P47" s="3">
         <v>47</v>
       </c>
@@ -20008,7 +20011,7 @@
       <c r="AZ47" s="3">
         <v>2019</v>
       </c>
-      <c r="BA47" s="58"/>
+      <c r="BA47" s="79"/>
       <c r="BB47" s="3">
         <v>47</v>
       </c>
@@ -20130,7 +20133,7 @@
       <c r="N48" s="3">
         <v>2019</v>
       </c>
-      <c r="O48" s="58"/>
+      <c r="O48" s="79"/>
       <c r="P48" s="3">
         <v>48</v>
       </c>
@@ -20178,7 +20181,7 @@
       <c r="AZ48" s="3">
         <v>2019</v>
       </c>
-      <c r="BA48" s="58"/>
+      <c r="BA48" s="79"/>
       <c r="BB48" s="3">
         <v>48</v>
       </c>
@@ -20300,7 +20303,7 @@
       <c r="N49" s="3">
         <v>2019</v>
       </c>
-      <c r="O49" s="58" t="s">
+      <c r="O49" s="79" t="s">
         <v>25</v>
       </c>
       <c r="P49" s="3">
@@ -20350,7 +20353,7 @@
       <c r="AZ49" s="3">
         <v>2019</v>
       </c>
-      <c r="BA49" s="58" t="s">
+      <c r="BA49" s="79" t="s">
         <v>25</v>
       </c>
       <c r="BB49" s="3">
@@ -20474,7 +20477,7 @@
       <c r="N50" s="3">
         <v>2019</v>
       </c>
-      <c r="O50" s="58"/>
+      <c r="O50" s="79"/>
       <c r="P50" s="3">
         <v>50</v>
       </c>
@@ -20522,7 +20525,7 @@
       <c r="AZ50" s="3">
         <v>2019</v>
       </c>
-      <c r="BA50" s="58"/>
+      <c r="BA50" s="79"/>
       <c r="BB50" s="3">
         <v>50</v>
       </c>
@@ -20644,7 +20647,7 @@
       <c r="N51" s="3">
         <v>2019</v>
       </c>
-      <c r="O51" s="58"/>
+      <c r="O51" s="79"/>
       <c r="P51" s="3">
         <v>51</v>
       </c>
@@ -20692,7 +20695,7 @@
       <c r="AZ51" s="3">
         <v>2019</v>
       </c>
-      <c r="BA51" s="58"/>
+      <c r="BA51" s="79"/>
       <c r="BB51" s="3">
         <v>51</v>
       </c>
@@ -20814,7 +20817,7 @@
       <c r="N52" s="3">
         <v>2019</v>
       </c>
-      <c r="O52" s="58"/>
+      <c r="O52" s="79"/>
       <c r="P52" s="3">
         <v>52</v>
       </c>
@@ -20862,7 +20865,7 @@
       <c r="AZ52" s="3">
         <v>2019</v>
       </c>
-      <c r="BA52" s="58"/>
+      <c r="BA52" s="79"/>
       <c r="BB52" s="3">
         <v>52</v>
       </c>
@@ -20984,7 +20987,7 @@
       <c r="N53" s="3">
         <v>2019</v>
       </c>
-      <c r="O53" s="58"/>
+      <c r="O53" s="79"/>
       <c r="P53" s="3">
         <v>53</v>
       </c>
@@ -21032,7 +21035,7 @@
       <c r="AZ53" s="3">
         <v>2019</v>
       </c>
-      <c r="BA53" s="58"/>
+      <c r="BA53" s="79"/>
       <c r="BB53" s="3">
         <v>53</v>
       </c>
@@ -21311,6 +21314,9 @@
       <c r="J59">
         <v>1153.8900000000001</v>
       </c>
+      <c r="P59">
+        <v>24.81</v>
+      </c>
     </row>
     <row r="60" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
@@ -21343,6 +21349,9 @@
       <c r="J60">
         <v>1355.748</v>
       </c>
+      <c r="P60">
+        <v>24.53</v>
+      </c>
     </row>
     <row r="61" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
@@ -21471,6 +21480,10 @@
       <c r="J64">
         <v>1357.6189999999999</v>
       </c>
+      <c r="T64">
+        <f>+P60-P59</f>
+        <v>-0.27999999999999758</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
@@ -28743,7 +28756,7 @@
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A292" s="60">
+      <c r="A292" s="58">
         <v>45507</v>
       </c>
       <c r="B292" t="s">
@@ -28770,7 +28783,7 @@
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A293" s="60">
+      <c r="A293" s="58">
         <v>45514</v>
       </c>
       <c r="B293" t="s">
@@ -28797,7 +28810,7 @@
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A294" s="60">
+      <c r="A294" s="58">
         <v>45521</v>
       </c>
       <c r="B294" t="s">
@@ -28824,7 +28837,7 @@
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A295" s="60">
+      <c r="A295" s="58">
         <v>45528</v>
       </c>
       <c r="B295" t="s">
@@ -28851,7 +28864,7 @@
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A296" s="60">
+      <c r="A296" s="58">
         <v>45535</v>
       </c>
       <c r="B296" t="s">
@@ -28878,7 +28891,7 @@
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A297" s="60">
+      <c r="A297" s="58">
         <v>45542</v>
       </c>
       <c r="B297" t="s">
@@ -28906,6 +28919,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O49:O53"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="O27:O31"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="O36:O40"/>
+    <mergeCell ref="O41:O44"/>
+    <mergeCell ref="O45:O48"/>
     <mergeCell ref="BA49:BA53"/>
     <mergeCell ref="BA2:BA5"/>
     <mergeCell ref="BA6:BA9"/>
@@ -28918,18 +28943,6 @@
     <mergeCell ref="BA36:BA40"/>
     <mergeCell ref="BA41:BA44"/>
     <mergeCell ref="BA45:BA48"/>
-    <mergeCell ref="O49:O53"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="O27:O31"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="O36:O40"/>
-    <mergeCell ref="O41:O44"/>
-    <mergeCell ref="O45:O48"/>
   </mergeCells>
   <conditionalFormatting sqref="AB3:AB53">
     <cfRule type="colorScale" priority="2">
@@ -28969,37 +28982,37 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="63" t="s">
         <v>85</v>
       </c>
     </row>
@@ -29016,20 +29029,20 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="64">
         <v>45474</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="61">
         <f>+WEEKNUM(E2)</f>
         <v>27</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="61">
         <v>225.51300000000001</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="61">
         <v>51.910769999999999</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="62">
         <v>0.23018970081547399</v>
       </c>
     </row>
@@ -29046,20 +29059,20 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="64">
         <v>45475</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="61">
         <f t="shared" ref="F3:F66" si="0">+WEEKNUM(E3)</f>
         <v>27</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="61">
         <v>403.66419000000002</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="61">
         <v>94.239670000000004</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="62">
         <v>0.23346056532782861</v>
       </c>
     </row>
@@ -29076,20 +29089,20 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="64">
         <v>45476</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="61">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="61">
         <v>750.41404</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="61">
         <v>174.04204999999999</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="62">
         <v>0.23192803002459811</v>
       </c>
     </row>
@@ -29106,20 +29119,20 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="64">
         <v>45477</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="61">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="61">
         <v>867.72910999999999</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="61">
         <v>201.08992000000001</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="62">
         <v>0.23174273823774341</v>
       </c>
     </row>
@@ -29136,20 +29149,20 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="64">
         <v>45478</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="61">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="61">
         <v>842.03859999999997</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="61">
         <v>195.0018</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="62">
         <v>0.2315829701868774</v>
       </c>
     </row>
@@ -29166,26 +29179,26 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="64">
         <v>45479</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="61">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="61">
         <v>899.50631999999996</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="61">
         <v>208.00755000000001</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="62">
         <v>0.2312463463291731</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="61">
         <v>3988.86526</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="61">
         <v>924.29176000000007</v>
       </c>
     </row>
@@ -29202,20 +29215,20 @@
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="64">
         <v>45480</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="61">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="61">
         <v>174.35471000000001</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="61">
         <v>40.57206</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="62">
         <v>0.23269838824543371</v>
       </c>
     </row>
@@ -29232,20 +29245,20 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="64">
         <v>45481</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="61">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="61">
         <v>541.75720000000001</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="61">
         <v>124.93377</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="62">
         <v>0.23060841646405439</v>
       </c>
     </row>
@@ -29262,20 +29275,20 @@
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="64">
         <v>45482</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="61">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="61">
         <v>544.71561999999994</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="61">
         <v>123.10238</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="62">
         <v>0.22599384978165299</v>
       </c>
     </row>
@@ -29292,20 +29305,20 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="64">
         <v>45483</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="61">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="61">
         <v>862.22753</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="61">
         <v>195.04121000000001</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="62">
         <v>0.22620619640850481</v>
       </c>
     </row>
@@ -29322,20 +29335,20 @@
       <c r="D12">
         <v>11</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="64">
         <v>45484</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="61">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="61">
         <v>856.33543999999995</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="61">
         <v>194.22913</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="62">
         <v>0.2268143077203485</v>
       </c>
     </row>
@@ -29352,20 +29365,20 @@
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="64">
         <v>45485</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="61">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="61">
         <v>812.64649999999995</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="61">
         <v>186.20502999999999</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="62">
         <v>0.22913410689641811</v>
       </c>
     </row>
@@ -29382,26 +29395,26 @@
       <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="64">
         <v>45486</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="61">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="61">
         <v>807.11767999999995</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="61">
         <v>178.82469</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="62">
         <v>0.22155962436605281</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="61">
         <v>4599.1546799999996</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="61">
         <v>1042.9082699999999</v>
       </c>
     </row>
@@ -29418,20 +29431,20 @@
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="64">
         <v>45487</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="61">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="61">
         <v>242.84528</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="61">
         <v>55.52899</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="62">
         <v>0.2286599517190534</v>
       </c>
     </row>
@@ -29448,20 +29461,20 @@
       <c r="D16">
         <v>15</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="64">
         <v>45488</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="61">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="61">
         <v>803.22910999999999</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="61">
         <v>177.10731000000001</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="62">
         <v>0.220494137718689</v>
       </c>
     </row>
@@ -29478,20 +29491,20 @@
       <c r="D17">
         <v>16</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="64">
         <v>45489</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="61">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="61">
         <v>930.05840999999998</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="61">
         <v>206.80224000000001</v>
       </c>
-      <c r="I17" s="64">
+      <c r="I17" s="62">
         <v>0.22235403473207671</v>
       </c>
     </row>
@@ -29508,20 +29521,20 @@
       <c r="D18">
         <v>17</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="64">
         <v>45490</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="61">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="61">
         <v>915.35297000000003</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="61">
         <v>210.06307000000001</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="62">
         <v>0.22948859826171761</v>
       </c>
     </row>
@@ -29538,20 +29551,20 @@
       <c r="D19">
         <v>18</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="64">
         <v>45491</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="61">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="61">
         <v>824.46334000000002</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="61">
         <v>190.68144000000001</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="62">
         <v>0.231279464772806</v>
       </c>
     </row>
@@ -29568,20 +29581,20 @@
       <c r="D20">
         <v>19</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="64">
         <v>45492</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="61">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="61">
         <v>908.73386000000005</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="61">
         <v>202.24885</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="62">
         <v>0.2225611467806427</v>
       </c>
     </row>
@@ -29598,26 +29611,26 @@
       <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="64">
         <v>45493</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="61">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="61">
         <v>1016.03471</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="61">
         <v>239.95332999999999</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="62">
         <v>0.23616646915536971</v>
       </c>
-      <c r="J21" s="63">
+      <c r="J21" s="61">
         <v>5640.7176799999997</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="61">
         <v>1282.3852300000001</v>
       </c>
     </row>
@@ -29634,20 +29647,20 @@
       <c r="D22">
         <v>21</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="64">
         <v>45494</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="61">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="61">
         <v>216.02249</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="61">
         <v>50.675330000000002</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="62">
         <v>0.2345835843295761</v>
       </c>
     </row>
@@ -29664,20 +29677,20 @@
       <c r="D23">
         <v>22</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="64">
         <v>45495</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="61">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="61">
         <v>895.27805000000001</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="61">
         <v>210.46668</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="62">
         <v>0.23508526764394591</v>
       </c>
     </row>
@@ -29694,20 +29707,20 @@
       <c r="D24">
         <v>23</v>
       </c>
-      <c r="E24" s="66">
+      <c r="E24" s="64">
         <v>45496</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="61">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="61">
         <v>718.36631999999997</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="61">
         <v>168.9384</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="62">
         <v>0.23517026800476951</v>
       </c>
     </row>
@@ -29724,20 +29737,20 @@
       <c r="D25">
         <v>24</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="64">
         <v>45497</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="61">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="61">
         <v>891.90875000000005</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="61">
         <v>208.42049</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="62">
         <v>0.23367916280673329</v>
       </c>
     </row>
@@ -29754,20 +29767,20 @@
       <c r="D26">
         <v>25</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="64">
         <v>45498</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="61">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="61">
         <v>989.60473999999999</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="61">
         <v>228.29186999999999</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="62">
         <v>0.2306899520307471</v>
       </c>
     </row>
@@ -29784,20 +29797,20 @@
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="66">
+      <c r="E27" s="64">
         <v>45499</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="61">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="61">
         <v>939.29683</v>
       </c>
-      <c r="H27" s="63">
+      <c r="H27" s="61">
         <v>216.62540000000001</v>
       </c>
-      <c r="I27" s="64">
+      <c r="I27" s="62">
         <v>0.23062507301339449</v>
       </c>
     </row>
@@ -29814,26 +29827,26 @@
       <c r="D28">
         <v>27</v>
       </c>
-      <c r="E28" s="66">
+      <c r="E28" s="64">
         <v>45500</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="61">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G28" s="63">
+      <c r="G28" s="61">
         <v>724.65507000000002</v>
       </c>
-      <c r="H28" s="63">
+      <c r="H28" s="61">
         <v>170.38915</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="62">
         <v>0.23513138464621519</v>
       </c>
-      <c r="J28" s="63">
+      <c r="J28" s="61">
         <v>5375.1322499999997</v>
       </c>
-      <c r="K28" s="63">
+      <c r="K28" s="61">
         <v>1253.8073199999999</v>
       </c>
     </row>
@@ -29850,20 +29863,20 @@
       <c r="D29">
         <v>28</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="64">
         <v>45501</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="61">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G29" s="63">
+      <c r="G29" s="61">
         <v>0</v>
       </c>
-      <c r="H29" s="63">
+      <c r="H29" s="61">
         <v>0</v>
       </c>
-      <c r="I29" s="64" t="s">
+      <c r="I29" s="62" t="s">
         <v>88</v>
       </c>
     </row>
@@ -29880,20 +29893,20 @@
       <c r="D30">
         <v>29</v>
       </c>
-      <c r="E30" s="66">
+      <c r="E30" s="64">
         <v>45502</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="61">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G30" s="63">
+      <c r="G30" s="61">
         <v>631.70073000000002</v>
       </c>
-      <c r="H30" s="63">
+      <c r="H30" s="61">
         <v>144.79581999999999</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="62">
         <v>0.22921585036002731</v>
       </c>
     </row>
@@ -29910,20 +29923,20 @@
       <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31" s="66">
+      <c r="E31" s="64">
         <v>45503</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="61">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G31" s="63">
+      <c r="G31" s="61">
         <v>1123.5612100000001</v>
       </c>
-      <c r="H31" s="63">
+      <c r="H31" s="61">
         <v>258.62132000000003</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="62">
         <v>0.2301800006071765</v>
       </c>
     </row>
@@ -29940,20 +29953,20 @@
       <c r="D32">
         <v>31</v>
       </c>
-      <c r="E32" s="66">
+      <c r="E32" s="64">
         <v>45504</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="61">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G32" s="63">
+      <c r="G32" s="61">
         <v>878.43543999999997</v>
       </c>
-      <c r="H32" s="63">
+      <c r="H32" s="61">
         <v>202.41642999999999</v>
       </c>
-      <c r="I32" s="64">
+      <c r="I32" s="62">
         <v>0.23042835111479559</v>
       </c>
     </row>
@@ -29970,20 +29983,20 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="66">
+      <c r="E33" s="64">
         <v>45505</v>
       </c>
-      <c r="F33" s="63">
+      <c r="F33" s="61">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G33" s="63">
+      <c r="G33" s="61">
         <v>952.57543999999996</v>
       </c>
-      <c r="H33" s="63">
+      <c r="H33" s="61">
         <v>214.65477999999999</v>
       </c>
-      <c r="I33" s="64">
+      <c r="I33" s="62">
         <v>0.22534150156128319</v>
       </c>
     </row>
@@ -30000,20 +30013,20 @@
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" s="66">
+      <c r="E34" s="64">
         <v>45506</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="61">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="61">
         <v>680.92717000000005</v>
       </c>
-      <c r="H34" s="63">
+      <c r="H34" s="61">
         <v>157.25363999999999</v>
       </c>
-      <c r="I34" s="64">
+      <c r="I34" s="62">
         <v>0.2309404690078676</v>
       </c>
     </row>
@@ -30030,26 +30043,26 @@
       <c r="D35">
         <v>3</v>
       </c>
-      <c r="E35" s="66">
+      <c r="E35" s="64">
         <v>45507</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="63">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G35" s="63">
+      <c r="G35" s="61">
         <v>0</v>
       </c>
-      <c r="H35" s="63">
+      <c r="H35" s="61">
         <v>0</v>
       </c>
-      <c r="I35" s="64" t="s">
+      <c r="I35" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="J35" s="63">
+      <c r="J35" s="61">
         <v>4267.1999900000001</v>
       </c>
-      <c r="K35" s="63">
+      <c r="K35" s="61">
         <v>977.74198999999999</v>
       </c>
     </row>
@@ -30066,20 +30079,20 @@
       <c r="D36">
         <v>4</v>
       </c>
-      <c r="E36" s="66">
+      <c r="E36" s="64">
         <v>45508</v>
       </c>
-      <c r="F36" s="63">
+      <c r="F36" s="61">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G36" s="63">
+      <c r="G36" s="61">
         <v>0</v>
       </c>
-      <c r="H36" s="63">
+      <c r="H36" s="61">
         <v>0</v>
       </c>
-      <c r="I36" s="64" t="s">
+      <c r="I36" s="62" t="s">
         <v>88</v>
       </c>
     </row>
@@ -30096,20 +30109,20 @@
       <c r="D37">
         <v>5</v>
       </c>
-      <c r="E37" s="66">
+      <c r="E37" s="64">
         <v>45509</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="61">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G37" s="63">
+      <c r="G37" s="61">
         <v>0</v>
       </c>
-      <c r="H37" s="63">
+      <c r="H37" s="61">
         <v>0</v>
       </c>
-      <c r="I37" s="64" t="s">
+      <c r="I37" s="62" t="s">
         <v>88</v>
       </c>
     </row>
@@ -30126,20 +30139,20 @@
       <c r="D38">
         <v>6</v>
       </c>
-      <c r="E38" s="66">
+      <c r="E38" s="64">
         <v>45510</v>
       </c>
-      <c r="F38" s="63">
+      <c r="F38" s="61">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G38" s="63">
+      <c r="G38" s="61">
         <v>0</v>
       </c>
-      <c r="H38" s="63">
+      <c r="H38" s="61">
         <v>0</v>
       </c>
-      <c r="I38" s="64" t="s">
+      <c r="I38" s="62" t="s">
         <v>88</v>
       </c>
     </row>
@@ -30156,20 +30169,20 @@
       <c r="D39">
         <v>7</v>
       </c>
-      <c r="E39" s="66">
+      <c r="E39" s="64">
         <v>45511</v>
       </c>
-      <c r="F39" s="63">
+      <c r="F39" s="61">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G39" s="63">
+      <c r="G39" s="61">
         <v>721.32650000000001</v>
       </c>
-      <c r="H39" s="63">
+      <c r="H39" s="61">
         <v>167.36796000000001</v>
       </c>
-      <c r="I39" s="64">
+      <c r="I39" s="62">
         <v>0.23202802059816191</v>
       </c>
     </row>
@@ -30186,20 +30199,20 @@
       <c r="D40">
         <v>8</v>
       </c>
-      <c r="E40" s="66">
+      <c r="E40" s="64">
         <v>45512</v>
       </c>
-      <c r="F40" s="63">
+      <c r="F40" s="61">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G40" s="63">
+      <c r="G40" s="61">
         <v>752.67859999999996</v>
       </c>
-      <c r="H40" s="63">
+      <c r="H40" s="61">
         <v>172.691</v>
       </c>
-      <c r="I40" s="64">
+      <c r="I40" s="62">
         <v>0.2294352463322327</v>
       </c>
     </row>
@@ -30216,20 +30229,20 @@
       <c r="D41">
         <v>9</v>
       </c>
-      <c r="E41" s="66">
+      <c r="E41" s="64">
         <v>45513</v>
       </c>
-      <c r="F41" s="63">
+      <c r="F41" s="61">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G41" s="63">
+      <c r="G41" s="61">
         <v>900.56</v>
       </c>
-      <c r="H41" s="63">
+      <c r="H41" s="61">
         <v>208.41104999999999</v>
       </c>
-      <c r="I41" s="64">
+      <c r="I41" s="62">
         <v>0.23142383627964819</v>
       </c>
     </row>
@@ -30246,26 +30259,26 @@
       <c r="D42">
         <v>10</v>
       </c>
-      <c r="E42" s="66">
+      <c r="E42" s="64">
         <v>45514</v>
       </c>
-      <c r="F42" s="65">
+      <c r="F42" s="63">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G42" s="63">
+      <c r="G42" s="61">
         <v>826.48488999999995</v>
       </c>
-      <c r="H42" s="63">
+      <c r="H42" s="61">
         <v>190.11911000000001</v>
       </c>
-      <c r="I42" s="64">
+      <c r="I42" s="62">
         <v>0.23003337665374621</v>
       </c>
-      <c r="J42" s="63">
+      <c r="J42" s="61">
         <v>3201.0499899999995</v>
       </c>
-      <c r="K42" s="63">
+      <c r="K42" s="61">
         <v>738.58911999999998</v>
       </c>
     </row>
@@ -30282,20 +30295,20 @@
       <c r="D43">
         <v>11</v>
       </c>
-      <c r="E43" s="66">
+      <c r="E43" s="64">
         <v>45515</v>
       </c>
-      <c r="F43" s="63">
+      <c r="F43" s="61">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G43" s="63">
+      <c r="G43" s="61">
         <v>363.40528</v>
       </c>
-      <c r="H43" s="63">
+      <c r="H43" s="61">
         <v>83.806240000000003</v>
       </c>
-      <c r="I43" s="64">
+      <c r="I43" s="62">
         <v>0.2306137104006854</v>
       </c>
     </row>
@@ -30312,20 +30325,20 @@
       <c r="D44">
         <v>12</v>
       </c>
-      <c r="E44" s="66">
+      <c r="E44" s="64">
         <v>45516</v>
       </c>
-      <c r="F44" s="63">
+      <c r="F44" s="61">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G44" s="63">
+      <c r="G44" s="61">
         <v>848.36</v>
       </c>
-      <c r="H44" s="63">
+      <c r="H44" s="61">
         <v>197.01559</v>
       </c>
-      <c r="I44" s="64">
+      <c r="I44" s="62">
         <v>0.2322311165071432</v>
       </c>
     </row>
@@ -30342,20 +30355,20 @@
       <c r="D45">
         <v>13</v>
       </c>
-      <c r="E45" s="66">
+      <c r="E45" s="64">
         <v>45517</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F45" s="61">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G45" s="63">
+      <c r="G45" s="61">
         <v>973.20632000000001</v>
       </c>
-      <c r="H45" s="63">
+      <c r="H45" s="61">
         <v>231.72293999999999</v>
       </c>
-      <c r="I45" s="64">
+      <c r="I45" s="62">
         <v>0.23810258445506191</v>
       </c>
     </row>
@@ -30372,20 +30385,20 @@
       <c r="D46">
         <v>14</v>
       </c>
-      <c r="E46" s="66">
+      <c r="E46" s="64">
         <v>45518</v>
       </c>
-      <c r="F46" s="63">
+      <c r="F46" s="61">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G46" s="63">
+      <c r="G46" s="61">
         <v>980.19051000000002</v>
       </c>
-      <c r="H46" s="63">
+      <c r="H46" s="61">
         <v>226.96136000000001</v>
       </c>
-      <c r="I46" s="64">
+      <c r="I46" s="62">
         <v>0.23154821198993239</v>
       </c>
     </row>
@@ -30402,20 +30415,20 @@
       <c r="D47">
         <v>15</v>
       </c>
-      <c r="E47" s="66">
+      <c r="E47" s="64">
         <v>45519</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="61">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G47" s="63">
+      <c r="G47" s="61">
         <v>1055.37562</v>
       </c>
-      <c r="H47" s="63">
+      <c r="H47" s="61">
         <v>244.11436</v>
       </c>
-      <c r="I47" s="64">
+      <c r="I47" s="62">
         <v>0.231305665370591</v>
       </c>
     </row>
@@ -30432,20 +30445,20 @@
       <c r="D48">
         <v>16</v>
       </c>
-      <c r="E48" s="66">
+      <c r="E48" s="64">
         <v>45520</v>
       </c>
-      <c r="F48" s="63">
+      <c r="F48" s="61">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G48" s="63">
+      <c r="G48" s="61">
         <v>1120</v>
       </c>
-      <c r="H48" s="63">
+      <c r="H48" s="61">
         <v>257.89276999999998</v>
       </c>
-      <c r="I48" s="64">
+      <c r="I48" s="62">
         <v>0.2302614017857143</v>
       </c>
     </row>
@@ -30462,26 +30475,26 @@
       <c r="D49">
         <v>17</v>
       </c>
-      <c r="E49" s="66">
+      <c r="E49" s="64">
         <v>45521</v>
       </c>
-      <c r="F49" s="65">
+      <c r="F49" s="63">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G49" s="63">
+      <c r="G49" s="61">
         <v>1283.26224</v>
       </c>
-      <c r="H49" s="63">
+      <c r="H49" s="61">
         <v>295.27566000000002</v>
       </c>
-      <c r="I49" s="64">
+      <c r="I49" s="62">
         <v>0.23009767668376191</v>
       </c>
-      <c r="J49" s="63">
+      <c r="J49" s="61">
         <v>6623.79997</v>
       </c>
-      <c r="K49" s="63">
+      <c r="K49" s="61">
         <v>1536.78892</v>
       </c>
     </row>
@@ -30498,20 +30511,20 @@
       <c r="D50">
         <v>18</v>
       </c>
-      <c r="E50" s="66">
+      <c r="E50" s="64">
         <v>45522</v>
       </c>
-      <c r="F50" s="63">
+      <c r="F50" s="61">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G50" s="63">
+      <c r="G50" s="61">
         <v>603.26547000000005</v>
       </c>
-      <c r="H50" s="63">
+      <c r="H50" s="61">
         <v>139.34623999999999</v>
       </c>
-      <c r="I50" s="64">
+      <c r="I50" s="62">
         <v>0.23098660031047361</v>
       </c>
     </row>
@@ -30528,20 +30541,20 @@
       <c r="D51">
         <v>19</v>
       </c>
-      <c r="E51" s="66">
+      <c r="E51" s="64">
         <v>45523</v>
       </c>
-      <c r="F51" s="63">
+      <c r="F51" s="61">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G51" s="63">
+      <c r="G51" s="61">
         <v>1143.5491099999999</v>
       </c>
-      <c r="H51" s="63">
+      <c r="H51" s="61">
         <v>265.43119000000002</v>
       </c>
-      <c r="I51" s="64">
+      <c r="I51" s="62">
         <v>0.23211175425601091</v>
       </c>
     </row>
@@ -30558,20 +30571,20 @@
       <c r="D52">
         <v>20</v>
       </c>
-      <c r="E52" s="66">
+      <c r="E52" s="64">
         <v>45524</v>
       </c>
-      <c r="F52" s="63">
+      <c r="F52" s="61">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G52" s="63">
+      <c r="G52" s="61">
         <v>1110.5661299999999</v>
       </c>
-      <c r="H52" s="63">
+      <c r="H52" s="61">
         <v>261.68367999999998</v>
       </c>
-      <c r="I52" s="64">
+      <c r="I52" s="62">
         <v>0.2356308849433397</v>
       </c>
     </row>
@@ -30588,20 +30601,20 @@
       <c r="D53">
         <v>21</v>
       </c>
-      <c r="E53" s="66">
+      <c r="E53" s="64">
         <v>45525</v>
       </c>
-      <c r="F53" s="63">
+      <c r="F53" s="61">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G53" s="63">
+      <c r="G53" s="61">
         <v>1129.9047399999999</v>
       </c>
-      <c r="H53" s="63">
+      <c r="H53" s="61">
         <v>260.51357000000002</v>
       </c>
-      <c r="I53" s="64">
+      <c r="I53" s="62">
         <v>0.23056241891683721</v>
       </c>
     </row>
@@ -30618,20 +30631,20 @@
       <c r="D54">
         <v>22</v>
       </c>
-      <c r="E54" s="66">
+      <c r="E54" s="64">
         <v>45526</v>
       </c>
-      <c r="F54" s="63">
+      <c r="F54" s="61">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G54" s="63">
+      <c r="G54" s="61">
         <v>1146.1138599999999</v>
       </c>
-      <c r="H54" s="63">
+      <c r="H54" s="61">
         <v>264.06860999999998</v>
       </c>
-      <c r="I54" s="64">
+      <c r="I54" s="62">
         <v>0.2304034696866854</v>
       </c>
     </row>
@@ -30648,20 +30661,20 @@
       <c r="D55">
         <v>23</v>
       </c>
-      <c r="E55" s="66">
+      <c r="E55" s="64">
         <v>45527</v>
       </c>
-      <c r="F55" s="63">
+      <c r="F55" s="61">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G55" s="63">
+      <c r="G55" s="61">
         <v>1320.5893000000001</v>
       </c>
-      <c r="H55" s="63">
+      <c r="H55" s="61">
         <v>303.73142999999999</v>
       </c>
-      <c r="I55" s="64">
+      <c r="I55" s="62">
         <v>0.2299968885103037</v>
       </c>
     </row>
@@ -30678,26 +30691,26 @@
       <c r="D56">
         <v>24</v>
       </c>
-      <c r="E56" s="66">
+      <c r="E56" s="64">
         <v>45528</v>
       </c>
-      <c r="F56" s="65">
+      <c r="F56" s="63">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G56" s="63">
+      <c r="G56" s="61">
         <v>1186.23136</v>
       </c>
-      <c r="H56" s="63">
+      <c r="H56" s="61">
         <v>284.70542</v>
       </c>
-      <c r="I56" s="64">
+      <c r="I56" s="62">
         <v>0.2400083403628783</v>
       </c>
-      <c r="J56" s="63">
+      <c r="J56" s="61">
         <v>7640.2199700000001</v>
       </c>
-      <c r="K56" s="63">
+      <c r="K56" s="61">
         <v>1779.4801400000001</v>
       </c>
     </row>
@@ -30714,20 +30727,20 @@
       <c r="D57">
         <v>25</v>
       </c>
-      <c r="E57" s="66">
+      <c r="E57" s="64">
         <v>45529</v>
       </c>
-      <c r="F57" s="63">
+      <c r="F57" s="61">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G57" s="63">
+      <c r="G57" s="61">
         <v>323.22300000000001</v>
       </c>
-      <c r="H57" s="63">
+      <c r="H57" s="61">
         <v>79.027379999999994</v>
       </c>
-      <c r="I57" s="64">
+      <c r="I57" s="62">
         <v>0.24449800911445041</v>
       </c>
     </row>
@@ -30744,20 +30757,20 @@
       <c r="D58">
         <v>26</v>
       </c>
-      <c r="E58" s="66">
+      <c r="E58" s="64">
         <v>45530</v>
       </c>
-      <c r="F58" s="63">
+      <c r="F58" s="61">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G58" s="63">
+      <c r="G58" s="61">
         <v>1055.4647399999999</v>
       </c>
-      <c r="H58" s="63">
+      <c r="H58" s="61">
         <v>246.39259000000001</v>
       </c>
-      <c r="I58" s="64">
+      <c r="I58" s="62">
         <v>0.23344464354157399</v>
       </c>
     </row>
@@ -30774,20 +30787,20 @@
       <c r="D59">
         <v>27</v>
       </c>
-      <c r="E59" s="66">
+      <c r="E59" s="64">
         <v>45531</v>
       </c>
-      <c r="F59" s="63">
+      <c r="F59" s="61">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G59" s="63">
+      <c r="G59" s="61">
         <v>1121.4277199999999</v>
       </c>
-      <c r="H59" s="63">
+      <c r="H59" s="61">
         <v>254.55695</v>
       </c>
-      <c r="I59" s="64">
+      <c r="I59" s="62">
         <v>0.2269936309403873</v>
       </c>
     </row>
@@ -30804,20 +30817,20 @@
       <c r="D60">
         <v>28</v>
       </c>
-      <c r="E60" s="66">
+      <c r="E60" s="64">
         <v>45532</v>
       </c>
-      <c r="F60" s="63">
+      <c r="F60" s="61">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G60" s="63">
+      <c r="G60" s="61">
         <v>1224.8094799999999</v>
       </c>
-      <c r="H60" s="63">
+      <c r="H60" s="61">
         <v>275.44591000000003</v>
       </c>
-      <c r="I60" s="64">
+      <c r="I60" s="62">
         <v>0.22488878025339909</v>
       </c>
     </row>
@@ -30834,20 +30847,20 @@
       <c r="D61">
         <v>29</v>
       </c>
-      <c r="E61" s="66">
+      <c r="E61" s="64">
         <v>45533</v>
       </c>
-      <c r="F61" s="63">
+      <c r="F61" s="61">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G61" s="63">
+      <c r="G61" s="61">
         <v>1279.07349</v>
       </c>
-      <c r="H61" s="63">
+      <c r="H61" s="61">
         <v>294.69742000000002</v>
       </c>
-      <c r="I61" s="64">
+      <c r="I61" s="62">
         <v>0.23039913054565769</v>
       </c>
     </row>
@@ -30864,20 +30877,20 @@
       <c r="D62">
         <v>30</v>
       </c>
-      <c r="E62" s="66">
+      <c r="E62" s="64">
         <v>45534</v>
       </c>
-      <c r="F62" s="63">
+      <c r="F62" s="61">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G62" s="63">
+      <c r="G62" s="61">
         <v>1254.3901800000001</v>
       </c>
-      <c r="H62" s="63">
+      <c r="H62" s="61">
         <v>289.62903999999997</v>
       </c>
-      <c r="I62" s="64">
+      <c r="I62" s="62">
         <v>0.23089230497643079</v>
       </c>
     </row>
@@ -30894,26 +30907,26 @@
       <c r="D63">
         <v>31</v>
       </c>
-      <c r="E63" s="66">
+      <c r="E63" s="64">
         <v>45535</v>
       </c>
-      <c r="F63" s="65">
+      <c r="F63" s="63">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G63" s="63">
+      <c r="G63" s="61">
         <v>749.15135999999995</v>
       </c>
-      <c r="H63" s="63">
+      <c r="H63" s="61">
         <v>180.11279999999999</v>
       </c>
-      <c r="I63" s="64">
+      <c r="I63" s="62">
         <v>0.2404224428024799</v>
       </c>
-      <c r="J63" s="63">
+      <c r="J63" s="61">
         <v>7007.5399699999998</v>
       </c>
-      <c r="K63" s="63">
+      <c r="K63" s="61">
         <v>1619.8620900000001</v>
       </c>
     </row>
@@ -30930,20 +30943,20 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="66">
+      <c r="E64" s="64">
         <v>45536</v>
       </c>
-      <c r="F64" s="63">
+      <c r="F64" s="61">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G64" s="63">
+      <c r="G64" s="61">
         <v>0</v>
       </c>
-      <c r="H64" s="63">
+      <c r="H64" s="61">
         <v>0</v>
       </c>
-      <c r="I64" s="64" t="s">
+      <c r="I64" s="62" t="s">
         <v>88</v>
       </c>
     </row>
@@ -30960,20 +30973,20 @@
       <c r="D65">
         <v>2</v>
       </c>
-      <c r="E65" s="66">
+      <c r="E65" s="64">
         <v>45537</v>
       </c>
-      <c r="F65" s="63">
+      <c r="F65" s="61">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G65" s="63">
+      <c r="G65" s="61">
         <v>99.976169999999996</v>
       </c>
-      <c r="H65" s="63">
+      <c r="H65" s="61">
         <v>24.122170000000001</v>
       </c>
-      <c r="I65" s="64">
+      <c r="I65" s="62">
         <v>0.24127919683260521</v>
       </c>
     </row>
@@ -30990,20 +31003,20 @@
       <c r="D66">
         <v>3</v>
       </c>
-      <c r="E66" s="66">
+      <c r="E66" s="64">
         <v>45538</v>
       </c>
-      <c r="F66" s="63">
+      <c r="F66" s="61">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G66" s="63">
+      <c r="G66" s="61">
         <v>930.74702000000002</v>
       </c>
-      <c r="H66" s="63">
+      <c r="H66" s="61">
         <v>226.85243</v>
       </c>
-      <c r="I66" s="64">
+      <c r="I66" s="62">
         <v>0.2437315673597322</v>
       </c>
     </row>
@@ -31020,20 +31033,20 @@
       <c r="D67">
         <v>4</v>
       </c>
-      <c r="E67" s="66">
+      <c r="E67" s="64">
         <v>45539</v>
       </c>
-      <c r="F67" s="63">
+      <c r="F67" s="61">
         <f t="shared" ref="F67:F70" si="1">+WEEKNUM(E67)</f>
         <v>36</v>
       </c>
-      <c r="G67" s="63">
+      <c r="G67" s="61">
         <v>1137.5619099999999</v>
       </c>
-      <c r="H67" s="63">
+      <c r="H67" s="61">
         <v>268.07607999999999</v>
       </c>
-      <c r="I67" s="64">
+      <c r="I67" s="62">
         <v>0.23565845308586331</v>
       </c>
     </row>
@@ -31050,20 +31063,20 @@
       <c r="D68">
         <v>5</v>
       </c>
-      <c r="E68" s="66">
+      <c r="E68" s="64">
         <v>45540</v>
       </c>
-      <c r="F68" s="63">
+      <c r="F68" s="61">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="G68" s="63">
+      <c r="G68" s="61">
         <v>1125.49334</v>
       </c>
-      <c r="H68" s="63">
+      <c r="H68" s="61">
         <v>257.57371000000001</v>
       </c>
-      <c r="I68" s="64">
+      <c r="I68" s="62">
         <v>0.22885405079340579</v>
       </c>
     </row>
@@ -31080,20 +31093,20 @@
       <c r="D69">
         <v>6</v>
       </c>
-      <c r="E69" s="66">
+      <c r="E69" s="64">
         <v>45541</v>
       </c>
-      <c r="F69" s="63">
+      <c r="F69" s="61">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="G69" s="63">
+      <c r="G69" s="61">
         <v>1346.6031599999999</v>
       </c>
-      <c r="H69" s="63">
+      <c r="H69" s="61">
         <v>290.89184999999998</v>
       </c>
-      <c r="I69" s="64">
+      <c r="I69" s="62">
         <v>0.21601898661815111</v>
       </c>
     </row>
@@ -31110,26 +31123,26 @@
       <c r="D70">
         <v>7</v>
       </c>
-      <c r="E70" s="66">
+      <c r="E70" s="64">
         <v>45542</v>
       </c>
-      <c r="F70" s="65">
+      <c r="F70" s="63">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="G70" s="63">
+      <c r="G70" s="61">
         <v>1378.33069</v>
       </c>
-      <c r="H70" s="63">
+      <c r="H70" s="61">
         <v>301.09715999999997</v>
       </c>
-      <c r="I70" s="64">
+      <c r="I70" s="62">
         <v>0.2184505954808276</v>
       </c>
-      <c r="J70" s="63">
+      <c r="J70" s="61">
         <v>6018.7122899999995</v>
       </c>
-      <c r="K70" s="63">
+      <c r="K70" s="61">
         <v>1368.6134</v>
       </c>
     </row>
@@ -31140,10 +31153,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26A7709-5998-4E06-83A4-14F90CEF2422}">
-  <dimension ref="B2:L86"/>
+  <dimension ref="B2:Q86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31156,9 +31169,11 @@
     <col min="9" max="9" width="18.88671875" customWidth="1"/>
     <col min="11" max="11" width="41.5546875" customWidth="1"/>
     <col min="12" max="12" width="45.21875" customWidth="1"/>
+    <col min="16" max="16" width="36" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C2" s="15" t="s">
         <v>43</v>
       </c>
@@ -31175,7 +31190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
         <v>60</v>
       </c>
@@ -31186,7 +31201,7 @@
         <v>6.9899416431459197E-5</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>76</v>
       </c>
@@ -31203,7 +31218,7 @@
         <v>0.94050953485585098</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>77</v>
       </c>
@@ -31220,7 +31235,7 @@
         <v>0.65196584927114598</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>78</v>
       </c>
@@ -31241,7 +31256,7 @@
         <v>0.79623769206349848</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>91</v>
       </c>
@@ -31256,7 +31271,7 @@
         <v>0.24626123885276099</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>42</v>
       </c>
@@ -31277,7 +31292,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>40</v>
       </c>
@@ -31294,12 +31309,31 @@
       <c r="G11" s="3">
         <v>2.5645842911402771E-2</v>
       </c>
+      <c r="H11" t="str">
+        <f>+B11</f>
+        <v>Peso_MADUROS_propios_rolling_2</v>
+      </c>
       <c r="I11" s="3">
         <f>+(E11+F11)/2</f>
         <v>6.5566291626295448E-3</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>5.0508125783816629E-3</v>
+      </c>
+      <c r="N11">
+        <v>5.0508125783816629E-3</v>
+      </c>
+      <c r="O11" s="78">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11">
+        <v>5.0508125783816603E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>39</v>
       </c>
@@ -31316,12 +31350,31 @@
       <c r="G12" s="3">
         <v>8.097957471046198E-2</v>
       </c>
+      <c r="H12" t="str">
+        <f t="shared" ref="H12:H29" si="0">+B12</f>
+        <v>Peso_SMADUROS_propios</v>
+      </c>
       <c r="I12" s="7">
-        <f t="shared" ref="I12:I29" si="0">+(E12+F12)/2</f>
+        <f t="shared" ref="I12:I29" si="1">+(E12+F12)/2</f>
         <v>1.6518595372699485E-3</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>8.0244535707025607E-3</v>
+      </c>
+      <c r="N12">
+        <v>-8.0244535707025607E-3</v>
+      </c>
+      <c r="O12" s="78">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12">
+        <v>-8.0244535707025607E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>38</v>
       </c>
@@ -31338,12 +31391,31 @@
       <c r="G13" s="3">
         <v>3.3939240249072661E-2</v>
       </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>Peso_ESCOBAJO_propios</v>
+      </c>
       <c r="I13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8951027232684376E-5</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>2.0014366939356261E-3</v>
+      </c>
+      <c r="N13">
+        <v>2.0014366939356261E-3</v>
+      </c>
+      <c r="O13" s="78">
+        <v>3</v>
+      </c>
+      <c r="P13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13">
+        <v>2.00143669393563E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
         <v>41</v>
       </c>
@@ -31360,12 +31432,31 @@
       <c r="G14" s="3">
         <v>6.3520743843044306E-2</v>
       </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>Peso_VERDES_propios</v>
+      </c>
       <c r="I14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7194783040414006E-3</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>5.8383540193354993E-5</v>
+      </c>
+      <c r="N14">
+        <v>5.8383540193354993E-5</v>
+      </c>
+      <c r="O14" s="78">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14">
+        <v>5.8383540193355E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
         <v>36</v>
       </c>
@@ -31382,12 +31473,31 @@
       <c r="G15" s="3">
         <v>0.1154084341629017</v>
       </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>Peso_MALFORMADOB_propios</v>
+      </c>
       <c r="I15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9481335644636603E-3</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>7.2142474590481407E-3</v>
+      </c>
+      <c r="N15">
+        <v>-7.2142474590481407E-3</v>
+      </c>
+      <c r="O15" s="78">
+        <v>5</v>
+      </c>
+      <c r="P15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15">
+        <v>-7.2142474590481398E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>37</v>
       </c>
@@ -31404,12 +31514,31 @@
       <c r="G16" s="3">
         <v>7.1467274129946134E-2</v>
       </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>Peso_MALFORMADOA_propios</v>
+      </c>
       <c r="I16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5932430545991103E-3</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>7.8016759402138461E-3</v>
+      </c>
+      <c r="N16">
+        <v>7.8016759402138461E-3</v>
+      </c>
+      <c r="O16" s="78">
+        <v>6</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16">
+        <v>7.8016759402138496E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -31426,12 +31555,31 @@
       <c r="G17" s="3">
         <v>1.8332104752922559E-2</v>
       </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>Peso_ESCOBAJO_terceros</v>
+      </c>
       <c r="I17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6897802233746367E-3</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>3.6009840692634228E-4</v>
+      </c>
+      <c r="N17">
+        <v>-3.6009840692634228E-4</v>
+      </c>
+      <c r="O17" s="78">
+        <v>7</v>
+      </c>
+      <c r="P17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17">
+        <v>-3.6009840692634201E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -31448,12 +31596,31 @@
       <c r="G18" s="3">
         <v>2.0870296766097869E-2</v>
       </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>Peso_MALFORMADO_terceros</v>
+      </c>
       <c r="I18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4968156528599457E-3</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>1.3775155022443569E-3</v>
+      </c>
+      <c r="N18">
+        <v>1.3775155022443569E-3</v>
+      </c>
+      <c r="O18" s="78">
+        <v>8</v>
+      </c>
+      <c r="P18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18">
+        <v>1.37751550224436E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>33</v>
       </c>
@@ -31470,12 +31637,31 @@
       <c r="G19" s="3">
         <v>2.085341193562425E-2</v>
       </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>Peso_SMADUROS_terceros</v>
+      </c>
       <c r="I19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5934721274922602E-3</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>6.5998719182670798E-3</v>
+      </c>
+      <c r="N19">
+        <v>-6.5998719182670798E-3</v>
+      </c>
+      <c r="O19" s="78">
+        <v>9</v>
+      </c>
+      <c r="P19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19">
+        <v>-6.5998719182670798E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -31492,12 +31678,31 @@
       <c r="G20" s="3">
         <v>7.4808290764539528E-2</v>
       </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>Peso_VERDES_terceros</v>
+      </c>
       <c r="I20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1102730029223891E-4</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>6.496395340383836E-3</v>
+      </c>
+      <c r="N20">
+        <v>6.496395340383836E-3</v>
+      </c>
+      <c r="O20" s="78">
+        <v>10</v>
+      </c>
+      <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20">
+        <v>6.4963953403838403E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
         <v>34</v>
       </c>
@@ -31514,12 +31719,31 @@
       <c r="G21" s="3">
         <v>4.1732966890901398E-2</v>
       </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>Peso_MADUROS_terceros_rolling_2</v>
+      </c>
       <c r="I21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0276636323730033E-4</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>1.44897319879057E-3</v>
+      </c>
+      <c r="N21">
+        <v>-1.44897319879057E-3</v>
+      </c>
+      <c r="O21" s="78">
+        <v>11</v>
+      </c>
+      <c r="P21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21">
+        <v>-1.44897319879057E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
@@ -31536,12 +31760,31 @@
       <c r="G22" s="3">
         <v>8.3168755142680253E-2</v>
       </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>TM ACEITE CASCARA_TN_rolling_2</v>
+      </c>
       <c r="I22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3383794226506901E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>5.6695627969330743E-5</v>
+      </c>
+      <c r="N22">
+        <v>5.6695627969330743E-5</v>
+      </c>
+      <c r="O22" s="78">
+        <v>12</v>
+      </c>
+      <c r="P22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22">
+        <v>5.6695627969330702E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
         <v>56</v>
       </c>
@@ -31558,12 +31801,31 @@
       <c r="G23" s="3">
         <v>0.15127052791896731</v>
       </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>TM ACEITE RACIMO MAL DESFRUTADO_TN_rolling_2</v>
+      </c>
       <c r="I23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.981882325593808E-3</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>3.587144479290422E-3</v>
+      </c>
+      <c r="N23">
+        <v>3.587144479290422E-3</v>
+      </c>
+      <c r="O23" s="78">
+        <v>13</v>
+      </c>
+      <c r="P23" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23">
+        <v>3.5871444792904199E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
         <v>57</v>
       </c>
@@ -31580,12 +31842,31 @@
       <c r="G24" s="3">
         <v>1.515823799815344E-2</v>
       </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>TM ACEITE FIBRA_TN_rolling_2</v>
+      </c>
       <c r="I24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3606645981646065E-3</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>8.1577068252651763E-3</v>
+      </c>
+      <c r="N24">
+        <v>-8.1577068252651763E-3</v>
+      </c>
+      <c r="O24" s="78">
+        <v>14</v>
+      </c>
+      <c r="P24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24">
+        <v>-8.1577068252651798E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
         <v>58</v>
       </c>
@@ -31602,12 +31883,31 @@
       <c r="G25" s="3">
         <v>1.84010257451293E-2</v>
       </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>TM ACEITE ESCOBAJO_TN_rolling_2</v>
+      </c>
       <c r="I25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.011464933530664E-3</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>1.948014672836233E-3</v>
+      </c>
+      <c r="N25">
+        <v>1.948014672836233E-3</v>
+      </c>
+      <c r="O25" s="78">
+        <v>15</v>
+      </c>
+      <c r="P25" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25">
+        <v>1.94801467283623E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="22" t="s">
         <v>30</v>
       </c>
@@ -31624,12 +31924,31 @@
       <c r="G26" s="3">
         <v>3.0441668555823181E-2</v>
       </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>PRECIPITACION_TOTAL_rolling_2_SHIFTED_20</v>
+      </c>
       <c r="I26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0049428879718046E-3</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>1.385846309268139E-2</v>
+      </c>
+      <c r="N26">
+        <v>1.385846309268139E-2</v>
+      </c>
+      <c r="O26" s="78">
+        <v>16</v>
+      </c>
+      <c r="P26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26">
+        <v>1.38584630926814E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>68</v>
       </c>
@@ -31646,12 +31965,31 @@
       <c r="G27" s="3">
         <v>1.4895632987817301E-2</v>
       </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>SALDO &gt; 3_TN_rolling_2</v>
+      </c>
       <c r="I27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3068561711252882E-4</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>1.934650077590245E-3</v>
+      </c>
+      <c r="N27">
+        <v>-1.934650077590245E-3</v>
+      </c>
+      <c r="O27" s="78">
+        <v>17</v>
+      </c>
+      <c r="P27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27">
+        <v>-1.93465007759024E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>59</v>
       </c>
@@ -31668,12 +32006,31 @@
       <c r="G28" s="3">
         <v>6.425911472921042E-2</v>
       </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>NumInsectos_SHIFTED_20_rolling_2</v>
+      </c>
       <c r="I28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2480397215154436E-3</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>1.544394181391157E-3</v>
+      </c>
+      <c r="N28">
+        <v>-1.544394181391157E-3</v>
+      </c>
+      <c r="O28" s="78">
+        <v>18</v>
+      </c>
+      <c r="P28" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28">
+        <v>-1.5443941813911601E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>29</v>
       </c>
@@ -31690,12 +32047,31 @@
       <c r="G29" s="3">
         <v>5.4846855805303733E-2</v>
       </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>semana</v>
+      </c>
       <c r="I29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0059613415415622E-3</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>9.2590175478210208E-3</v>
+      </c>
+      <c r="N29">
+        <v>9.2590175478210208E-3</v>
+      </c>
+      <c r="O29" s="78">
+        <v>19</v>
+      </c>
+      <c r="P29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29">
+        <v>9.2590175478210208E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C30" s="25"/>
       <c r="D30" s="25">
         <f>+SUM(D11:D29)</f>
@@ -31809,24 +32185,24 @@
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="47">
-        <f t="shared" ref="D38:G40" si="1">+D12/D$30</f>
+        <f t="shared" ref="D38:G40" si="2">+D12/D$30</f>
         <v>1.3754992436726711E-5</v>
       </c>
       <c r="E38" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3063353676209226E-2</v>
       </c>
       <c r="F38" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8636185879348514E-2</v>
       </c>
       <c r="G38" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.097957471046198E-2</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="37">
-        <f t="shared" ref="I38:I55" si="2">+AVERAGE(E38:F38)</f>
+        <f t="shared" ref="I38:I55" si="3">+AVERAGE(E38:F38)</f>
         <v>2.084976977777887E-2</v>
       </c>
       <c r="K38" s="18" t="s">
@@ -31842,24 +32218,24 @@
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1441210561904585E-5</v>
       </c>
       <c r="E39" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7277683097771376E-4</v>
       </c>
       <c r="F39" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7931780808796748E-4</v>
       </c>
       <c r="G39" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3939240249072661E-2</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7604731953284062E-4</v>
       </c>
       <c r="K39" s="19" t="s">
@@ -31875,24 +32251,24 @@
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6515795005017856E-4</v>
       </c>
       <c r="E40" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.820252881363893E-2</v>
       </c>
       <c r="F40" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2796110137739836E-2</v>
       </c>
       <c r="G40" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3520743843044306E-2</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0499319475689387E-2</v>
       </c>
       <c r="K40" s="19" t="s">
@@ -31958,7 +32334,7 @@
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.8558940984595172E-2</v>
       </c>
     </row>
@@ -31968,24 +32344,24 @@
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29">
-        <f t="shared" ref="D43:G55" si="3">+D17/D$30</f>
+        <f t="shared" ref="D43:G55" si="4">+D17/D$30</f>
         <v>3.7129256798686546E-3</v>
       </c>
       <c r="E43" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4860555824589614E-2</v>
       </c>
       <c r="F43" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9880061311701422E-2</v>
       </c>
       <c r="G43" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8332104752922559E-2</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.2370308568145525E-2</v>
       </c>
       <c r="L43" s="56"/>
@@ -31996,24 +32372,24 @@
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1385323300523196E-4</v>
       </c>
       <c r="E44" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6697096366981065E-2</v>
       </c>
       <c r="F44" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2104680236417082E-2</v>
       </c>
       <c r="G44" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0870296766097869E-2</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9400888301699074E-2</v>
       </c>
     </row>
@@ -32023,24 +32399,24 @@
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1630220849248014E-4</v>
       </c>
       <c r="E45" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.6052957722764186E-2</v>
       </c>
       <c r="F45" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5642854408747855E-2</v>
       </c>
       <c r="G45" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.085341193562425E-2</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0847906065756028E-2</v>
       </c>
     </row>
@@ -32050,24 +32426,24 @@
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9849835570937001E-4</v>
       </c>
       <c r="E46" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1495576364449652E-3</v>
       </c>
       <c r="F46" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8661810878080808E-4</v>
       </c>
       <c r="G46" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4808290764539528E-2</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5180878726128865E-3</v>
       </c>
     </row>
@@ -32077,24 +32453,24 @@
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3773287847856868E-5</v>
       </c>
       <c r="E47" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5873660815246569E-2</v>
       </c>
       <c r="F47" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0093777383053592E-4</v>
       </c>
       <c r="G47" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1732966890901398E-2</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1372992945385521E-3</v>
       </c>
     </row>
@@ -32104,24 +32480,24 @@
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.385758163379844E-2</v>
       </c>
       <c r="E48" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15969660028901395</v>
       </c>
       <c r="F48" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18473478819803793</v>
       </c>
       <c r="G48" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3168755142680253E-2</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17221569424352595</v>
       </c>
     </row>
@@ -32131,24 +32507,24 @@
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5753624638996171E-3</v>
       </c>
       <c r="E49" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.40045109935254E-2</v>
       </c>
       <c r="F49" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11170783448773366</v>
       </c>
       <c r="G49" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15127052791896731</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10285617274062953</v>
       </c>
     </row>
@@ -32158,24 +32534,24 @@
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9121469690060063E-4</v>
       </c>
       <c r="E50" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2447750409592567E-2</v>
       </c>
       <c r="F50" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1066442591604338E-2</v>
       </c>
       <c r="G50" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.515823799815344E-2</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6757096500598451E-2</v>
       </c>
     </row>
@@ -32185,24 +32561,24 @@
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3968018000636526E-4</v>
       </c>
       <c r="E51" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1336097246649835E-2</v>
       </c>
       <c r="F51" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4857070881690405E-2</v>
       </c>
       <c r="G51" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.84010257451293E-2</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8096584064170116E-2</v>
       </c>
     </row>
@@ -32212,24 +32588,24 @@
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.7827290966408364E-3</v>
       </c>
       <c r="E52" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2293744845573706E-2</v>
       </c>
       <c r="F52" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9697459471138356E-2</v>
       </c>
       <c r="G52" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0441668555823181E-2</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5995602158356029E-2</v>
       </c>
     </row>
@@ -32239,24 +32615,24 @@
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0715918111413923E-8</v>
       </c>
       <c r="E53" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5332634487689264E-4</v>
       </c>
       <c r="F53" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9289904401380057E-3</v>
       </c>
       <c r="G53" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4895632987817301E-2</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7911583925074492E-3</v>
       </c>
     </row>
@@ -32266,24 +32642,24 @@
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1498477097244917E-4</v>
       </c>
       <c r="E54" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7796670426214099E-2</v>
       </c>
       <c r="F54" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3618999764340564E-2</v>
       </c>
       <c r="G54" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.425911472921042E-2</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5707835095277331E-2</v>
       </c>
     </row>
@@ -32293,24 +32669,24 @@
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.94978192502031034</v>
       </c>
       <c r="E55" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10669535391584664</v>
       </c>
       <c r="F55" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12525760120424817</v>
       </c>
       <c r="G55" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4846855805303733E-2</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11597647756004741</v>
       </c>
     </row>
@@ -32410,7 +32786,7 @@
         <v>0.1765970711100856</v>
       </c>
       <c r="I62" s="16">
-        <f t="shared" ref="I62:I67" si="4">+AVERAGE(E62:F62)</f>
+        <f t="shared" ref="I62:I67" si="5">+AVERAGE(E62:F62)</f>
         <v>0.17327449010275206</v>
       </c>
     </row>
@@ -32439,7 +32815,7 @@
         <v>0.26799854680493029</v>
       </c>
       <c r="I63" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.329925547548924</v>
       </c>
     </row>
@@ -32448,27 +32824,27 @@
         <v>53</v>
       </c>
       <c r="C64" s="16">
-        <f t="shared" ref="C64:G66" si="5">+C52</f>
+        <f t="shared" ref="C64:G66" si="6">+C52</f>
         <v>0</v>
       </c>
       <c r="D64" s="16">
+        <f t="shared" si="6"/>
+        <v>9.7827290966408364E-3</v>
+      </c>
+      <c r="E64" s="16">
+        <f t="shared" si="6"/>
+        <v>2.2293744845573706E-2</v>
+      </c>
+      <c r="F64" s="16">
+        <f t="shared" si="6"/>
+        <v>2.9697459471138356E-2</v>
+      </c>
+      <c r="G64" s="16">
+        <f t="shared" si="6"/>
+        <v>3.0441668555823181E-2</v>
+      </c>
+      <c r="I64" s="16">
         <f t="shared" si="5"/>
-        <v>9.7827290966408364E-3</v>
-      </c>
-      <c r="E64" s="16">
-        <f t="shared" si="5"/>
-        <v>2.2293744845573706E-2</v>
-      </c>
-      <c r="F64" s="16">
-        <f t="shared" si="5"/>
-        <v>2.9697459471138356E-2</v>
-      </c>
-      <c r="G64" s="16">
-        <f t="shared" si="5"/>
-        <v>3.0441668555823181E-2</v>
-      </c>
-      <c r="I64" s="16">
-        <f t="shared" si="4"/>
         <v>2.5995602158356029E-2</v>
       </c>
     </row>
@@ -32477,27 +32853,27 @@
         <v>79</v>
       </c>
       <c r="C65" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="16">
+        <f t="shared" si="6"/>
+        <v>8.0715918111413923E-8</v>
+      </c>
+      <c r="E65" s="16">
+        <f t="shared" si="6"/>
+        <v>6.5332634487689264E-4</v>
+      </c>
+      <c r="F65" s="16">
+        <f t="shared" si="6"/>
+        <v>2.9289904401380057E-3</v>
+      </c>
+      <c r="G65" s="16">
+        <f t="shared" si="6"/>
+        <v>1.4895632987817301E-2</v>
+      </c>
+      <c r="I65" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D65" s="16">
-        <f t="shared" si="5"/>
-        <v>8.0715918111413923E-8</v>
-      </c>
-      <c r="E65" s="16">
-        <f t="shared" si="5"/>
-        <v>6.5332634487689264E-4</v>
-      </c>
-      <c r="F65" s="16">
-        <f t="shared" si="5"/>
-        <v>2.9289904401380057E-3</v>
-      </c>
-      <c r="G65" s="16">
-        <f t="shared" si="5"/>
-        <v>1.4895632987817301E-2</v>
-      </c>
-      <c r="I65" s="16">
-        <f t="shared" si="4"/>
         <v>1.7911583925074492E-3</v>
       </c>
     </row>
@@ -32506,27 +32882,27 @@
         <v>61</v>
       </c>
       <c r="C66" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="16">
+        <f t="shared" si="6"/>
+        <v>2.1498477097244917E-4</v>
+      </c>
+      <c r="E66" s="16">
+        <f t="shared" si="6"/>
+        <v>1.7796670426214099E-2</v>
+      </c>
+      <c r="F66" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3618999764340564E-2</v>
+      </c>
+      <c r="G66" s="16">
+        <f t="shared" si="6"/>
+        <v>6.425911472921042E-2</v>
+      </c>
+      <c r="I66" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D66" s="16">
-        <f t="shared" si="5"/>
-        <v>2.1498477097244917E-4</v>
-      </c>
-      <c r="E66" s="16">
-        <f t="shared" si="5"/>
-        <v>1.7796670426214099E-2</v>
-      </c>
-      <c r="F66" s="16">
-        <f t="shared" si="5"/>
-        <v>1.3618999764340564E-2</v>
-      </c>
-      <c r="G66" s="16">
-        <f t="shared" si="5"/>
-        <v>6.425911472921042E-2</v>
-      </c>
-      <c r="I66" s="16">
-        <f t="shared" si="4"/>
         <v>1.5707835095277331E-2</v>
       </c>
     </row>
@@ -32555,7 +32931,7 @@
         <v>5.4846855805303733E-2</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11597647756004741</v>
       </c>
     </row>
@@ -33018,7 +33394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C403CEFF-570B-45D4-B10D-D54EA8A4322B}">
   <dimension ref="B2:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D26" sqref="D26:G44"/>
     </sheetView>
   </sheetViews>
